--- a/fifty_one/measurements/updated_filtered_data_with_lengths.xlsx
+++ b/fifty_one/measurements/updated_filtered_data_with_lengths.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC193"/>
+  <dimension ref="A1:AD193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,50 +531,55 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>Length_ground_truth_annotation(mm)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Length_fov(mm)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Height(mm)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>focal_RealLength(cm)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Length_1_pixels</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Length_2_pixels</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Length_3_pixels</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Pond_Type</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Euclidean_Distance</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>pose_eval_iou</t>
         </is>
@@ -648,38 +653,41 @@
       <c r="S2" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>66f57dee6e41de5c74ce9c99</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
+      <c r="T2" t="n">
+        <v>34.97814060596691</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>66f5aaff14f9f3f112e9cfcc</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
         <v>37.35521605470905</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>650</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>39.42425685964275</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>229.1411175</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>226.5569642</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>263.1799467</v>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>200.0197944927734</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.931093026812575</v>
       </c>
     </row>
@@ -751,38 +759,41 @@
       <c r="S3" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>66f57dee6e41de5c74ce9c9f</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
+      <c r="T3" t="n">
+        <v>23.84082212602392</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>66f5aaff14f9f3f112e9cfd2</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
         <v>26.80072332128652</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>650</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>28.31005693306384</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>163.3568115</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>138.6197113</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>155.5919706</v>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>143.6316679345381</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>0.8915517957772378</v>
       </c>
     </row>
@@ -854,38 +865,41 @@
       <c r="S4" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>66f57dee6e41de5c74ce9c9b</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
+      <c r="T4" t="n">
+        <v>43.97226548406323</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>66f5aaff14f9f3f112e9cfce</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
         <v>42.86306662213475</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>650</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>44.89569952533149</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>292.3325481</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>230.2682134</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>270.8825768</v>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>227.7792736750012</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>0.9845026843260742</v>
       </c>
     </row>
@@ -957,38 +971,41 @@
       <c r="S5" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>66f57dee6e41de5c74ce9c9d</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
+      <c r="T5" t="n">
+        <v>27.34325831016603</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>66f5aaff14f9f3f112e9cfd0</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
         <v>22.39472788197207</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>650</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>23.4284502799093</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>139.9982877</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>140.0598126</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>136.0026371</v>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>118.8647341395716</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>0.8703659401413183</v>
       </c>
     </row>
@@ -1060,38 +1077,41 @@
       <c r="S6" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cba</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
+      <c r="T6" t="n">
+        <v>30.34465457628419</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9cfed</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
         <v>29.47740342877551</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>650</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>31.11121125845315</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>209.3075476</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>152.7362976</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>189.6947448</v>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>157.8433831864357</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>0.9454158755583952</v>
       </c>
     </row>
@@ -1163,38 +1183,41 @@
       <c r="S7" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cbc</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
+      <c r="T7" t="n">
+        <v>31.98529083715453</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9cfef</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
         <v>29.82192527774654</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>650</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>31.29484491414642</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>204.4323003</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>155.7958704</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>202.4247324</v>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>158.7750523921354</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>0.9207572384545535</v>
       </c>
     </row>
@@ -1266,38 +1289,41 @@
       <c r="S8" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cbe</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
+      <c r="T8" t="n">
+        <v>31.81939576891721</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9cff1</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
         <v>33.89214728786699</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>650</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>35.50906007624683</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>182.1684791</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>177.08666</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>172.3248044</v>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>180.1559614520733</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>0.9980575364141113</v>
       </c>
     </row>
@@ -1369,38 +1395,41 @@
       <c r="S9" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cd5</t>
-        </is>
-      </c>
-      <c r="U9" t="n">
+      <c r="T9" t="n">
+        <v>32.99458496737289</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d008</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
         <v>35.0331607019719</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>650</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>36.64018363432859</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>204.349878</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>180.3984194</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>192.6635198</v>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>185.8947405605528</v>
       </c>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1470,38 +1499,41 @@
       <c r="S10" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cd3</t>
-        </is>
-      </c>
-      <c r="U10" t="n">
+      <c r="T10" t="n">
+        <v>32.73587997591925</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d006</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
         <v>32.34806322190212</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>650</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>33.99896784113986</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>163.875312</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>155.6371088</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>203.9626565</v>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>172.4944768080742</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>0.9815142369802182</v>
       </c>
     </row>
@@ -1573,38 +1605,41 @@
       <c r="S11" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9ce6</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
+      <c r="T11" t="n">
+        <v>29.06797452139072</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d019</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
         <v>32.24545998329052</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>650</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>34.3013568051794</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>193.20712</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>157.579749</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>181.1058168</v>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>174.0286535627408</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>0.9205551337783308</v>
       </c>
     </row>
@@ -1676,38 +1711,41 @@
       <c r="S12" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9ce4</t>
-        </is>
-      </c>
-      <c r="U12" t="n">
+      <c r="T12" t="n">
+        <v>27.1586762310402</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d017</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
         <v>32.06152817148222</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>650</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>33.7572687874512</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>194.4023968</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>170.5513644</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>188.8089812</v>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>171.2682115871464</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>0.8846870864854669</v>
       </c>
     </row>
@@ -1779,38 +1817,41 @@
       <c r="S13" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cea</t>
-        </is>
-      </c>
-      <c r="U13" t="n">
+      <c r="T13" t="n">
+        <v>30.50606190790112</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d01d</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
         <v>29.43992546221428</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>650</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>30.81975914013957</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>155.3332512</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>164.9263194</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>141.7638246</v>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>156.3646947480687</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>0.9645534678230094</v>
       </c>
     </row>
@@ -1882,38 +1923,41 @@
       <c r="S14" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9ce8</t>
-        </is>
-      </c>
-      <c r="U14" t="n">
+      <c r="T14" t="n">
+        <v>33.30324564756067</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d01b</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
         <v>30.2646244461032</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>650</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>31.66776903609522</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>178.8872352</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>153.3099474</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>197.466314</v>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>160.6670907506303</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>0.7429310512176706</v>
       </c>
     </row>
@@ -1985,38 +2029,41 @@
       <c r="S15" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d09</t>
-        </is>
-      </c>
-      <c r="U15" t="n">
+      <c r="T15" t="n">
+        <v>28.2850719090355</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d03c</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
         <v>33.0920665552018</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>650</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>34.61219926399735</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>223.9994979</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>232.0364225</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>243.9989376</v>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>175.6057193005618</v>
       </c>
-      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2086,38 +2133,41 @@
       <c r="S16" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d0b</t>
-        </is>
-      </c>
-      <c r="U16" t="n">
+      <c r="T16" t="n">
+        <v>35.67819506241886</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d03e</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
         <v>37.36076442625708</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>650</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>39.25517822225937</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>227.4374997</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>182.7804175</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>202.7801592</v>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>199.161970477905</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>0.9394532793075365</v>
       </c>
     </row>
@@ -2189,38 +2239,41 @@
       <c r="S17" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d1a</t>
-        </is>
-      </c>
-      <c r="U17" t="n">
+      <c r="T17" t="n">
+        <v>32.33585772498071</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d04d</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
         <v>30.59340120621066</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>650</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>32.18633966463919</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>232.0342897</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>227.436704</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>216.3295016</v>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>163.2980697167178</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>0.984783433413809</v>
       </c>
     </row>
@@ -2292,38 +2345,41 @@
       <c r="S18" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d1c</t>
-        </is>
-      </c>
-      <c r="U18" t="n">
+      <c r="T18" t="n">
+        <v>26.44988057585963</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d04f</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
         <v>33.37558782284649</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>650</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>34.90483802873019</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>208.0398168</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>231.9975232</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>200.1587477</v>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>177.0904282144386</v>
       </c>
-      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2393,38 +2449,41 @@
       <c r="S19" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d2f</t>
-        </is>
-      </c>
-      <c r="U19" t="n">
+      <c r="T19" t="n">
+        <v>22.16144197842825</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d062</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
         <v>22.80639442943114</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>650</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>24.17720398744675</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>157.6351081</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>168.809508</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>131.024285</v>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>122.663551787309</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>0.9904305234937628</v>
       </c>
     </row>
@@ -2496,38 +2555,41 @@
       <c r="S20" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d2d</t>
-        </is>
-      </c>
-      <c r="U20" t="n">
+      <c r="T20" t="n">
+        <v>50.13464669125212</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d060</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
         <v>36.72052940623376</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>650</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>38.77907815764956</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>226.2764583</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>243.245592</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>266.1129968</v>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>196.7464668091793</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>0.9535429479097384</v>
       </c>
     </row>
@@ -2599,38 +2661,41 @@
       <c r="S21" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d33</t>
-        </is>
-      </c>
-      <c r="U21" t="n">
+      <c r="T21" t="n">
+        <v>29.21920718153235</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d066</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
         <v>28.17209487168396</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>650</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>29.47093211384655</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>181.419057</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
         <v>181.41975</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>168.2402484</v>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
         <v>149.5213925251267</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>0.8858197179221321</v>
       </c>
     </row>
@@ -2702,38 +2767,41 @@
       <c r="S22" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d4c</t>
-        </is>
-      </c>
-      <c r="U22" t="n">
+      <c r="T22" t="n">
+        <v>36.45331453954083</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d07f</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
         <v>32.71482405445825</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>650</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>34.91505110102607</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>203.9987202</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Z22" t="n">
         <v>220.5815013</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
         <v>192.0427542</v>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>177.1422444510524</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>0.9649237523910981</v>
       </c>
     </row>
@@ -2805,38 +2873,41 @@
       <c r="S23" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d4a</t>
-        </is>
-      </c>
-      <c r="U23" t="n">
+      <c r="T23" t="n">
+        <v>30.15466186856121</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d07d</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
         <v>28.34981445362558</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>650</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>29.65595454976624</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>208.6895877</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>176.0478003</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>240.8319054</v>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>150.4601077364486</v>
       </c>
-      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2906,38 +2977,41 @@
       <c r="S24" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d4e</t>
-        </is>
-      </c>
-      <c r="U24" t="n">
+      <c r="T24" t="n">
+        <v>26.28070058307332</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d081</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
         <v>25.90241886313012</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>650</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>27.57969309058211</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>178.5713754</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Z24" t="n">
         <v>140.9138325</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>159.2457246</v>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>139.926151653071</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>0.5996241411298566</v>
       </c>
     </row>
@@ -3009,38 +3083,41 @@
       <c r="S25" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d6b</t>
-        </is>
-      </c>
-      <c r="U25" t="n">
+      <c r="T25" t="n">
+        <v>17.03540515214701</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d09e</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
         <v>22.26988555380125</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>650</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>23.66276167937307</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>148.4863072</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>134.16483</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>136.059835</v>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
         <v>120.0535179417599</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>0.9493924387458532</v>
       </c>
     </row>
@@ -3112,38 +3189,41 @@
       <c r="S26" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d69</t>
-        </is>
-      </c>
-      <c r="U26" t="n">
+      <c r="T26" t="n">
+        <v>34.56245758580358</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d09c</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
         <v>32.04944810612317</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>650</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>34.09538788866976</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>191.5397904</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>186.4589643</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>196.979751</v>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB26" t="n">
+      <c r="AC26" t="n">
         <v>172.9836659425853</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>0.9627419770822969</v>
       </c>
     </row>
@@ -3215,38 +3295,41 @@
       <c r="S27" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d6d</t>
-        </is>
-      </c>
-      <c r="U27" t="n">
+      <c r="T27" t="n">
+        <v>34.28215253980245</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0a0</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
         <v>28.31278584164456</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>650</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>30.21154856406327</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>190.0725344</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>176.4091643</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AA27" t="n">
         <v>181.10706</v>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
         <v>153.2789256270876</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>0.7521633542128734</v>
       </c>
     </row>
@@ -3328,6 +3411,7 @@
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3407,6 +3491,7 @@
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3486,6 +3571,7 @@
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3565,6 +3651,7 @@
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3644,6 +3731,7 @@
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3723,6 +3811,7 @@
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3802,6 +3891,7 @@
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3871,38 +3961,41 @@
       <c r="S35" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d86</t>
-        </is>
-      </c>
-      <c r="U35" t="n">
+      <c r="T35" t="n">
+        <v>34.81197932375229</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0b9</t>
+        </is>
+      </c>
+      <c r="V35" t="n">
         <v>31.6800074550035</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>650</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>33.24487782032969</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>189.7358605</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Z35" t="n">
         <v>162.4350375</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AA35" t="n">
         <v>170.5538484</v>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB35" t="n">
+      <c r="AC35" t="n">
         <v>168.6685852629655</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
         <v>0.9676638995212861</v>
       </c>
     </row>
@@ -3974,38 +4067,41 @@
       <c r="S36" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d8a</t>
-        </is>
-      </c>
-      <c r="U36" t="n">
+      <c r="T36" t="n">
+        <v>44.78751797629256</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0bd</t>
+        </is>
+      </c>
+      <c r="V36" t="n">
         <v>32.28028700814235</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>650</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>34.35740925599293</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
         <v>234.7749273</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Z36" t="n">
         <v>227.297475</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AA36" t="n">
         <v>207.5759814</v>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB36" t="n">
+      <c r="AC36" t="n">
         <v>174.3130368482002</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AD36" t="n">
         <v>0.8686132113593561</v>
       </c>
     </row>
@@ -4077,38 +4173,41 @@
       <c r="S37" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d8c</t>
-        </is>
-      </c>
-      <c r="U37" t="n">
+      <c r="T37" t="n">
+        <v>60.78169938864213</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0bf</t>
+        </is>
+      </c>
+      <c r="V37" t="n">
         <v>28.18934910182833</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>650</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>30.07437687099942</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>296.9739046</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Z37" t="n">
         <v>298.8225</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AA37" t="n">
         <v>263.4531768</v>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AB37" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB37" t="n">
+      <c r="AC37" t="n">
         <v>152.5829821637894</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AD37" t="n">
         <v>0.8007044776373631</v>
       </c>
     </row>
@@ -4180,38 +4279,41 @@
       <c r="S38" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d82</t>
-        </is>
-      </c>
-      <c r="U38" t="n">
+      <c r="T38" t="n">
+        <v>34.97814060596683</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0b5</t>
+        </is>
+      </c>
+      <c r="V38" t="n">
         <v>32.49255593555194</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>650</v>
       </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
         <v>34.33620567683121</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>235.2893990000001</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="n">
         <v>229.9586625</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
         <v>227.4051312</v>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AB38" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB38" t="n">
+      <c r="AC38" t="n">
         <v>174.2054600443675</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AD38" t="n">
         <v>0.9536967273331884</v>
       </c>
     </row>
@@ -4283,38 +4385,41 @@
       <c r="S39" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d88</t>
-        </is>
-      </c>
-      <c r="U39" t="n">
+      <c r="T39" t="n">
+        <v>27.57875847580103</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0bb</t>
+        </is>
+      </c>
+      <c r="V39" t="n">
         <v>32.20786892779799</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>650</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>34.29611036974219</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>240.0303534</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Z39" t="n">
         <v>236.3711625</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AA39" t="n">
         <v>193.3325076</v>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB39" t="n">
+      <c r="AC39" t="n">
         <v>174.0020356624541</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AD39" t="n">
         <v>0.726951361062332</v>
       </c>
     </row>
@@ -4386,38 +4491,41 @@
       <c r="S40" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9db1</t>
-        </is>
-      </c>
-      <c r="U40" t="n">
+      <c r="T40" t="n">
+        <v>25.12875710334353</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d0e4</t>
+        </is>
+      </c>
+      <c r="V40" t="n">
         <v>33.63960161324392</v>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>650</v>
       </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
         <v>35.49222713542581</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
         <v>180.621</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="n">
         <v>209.378884</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AA40" t="n">
         <v>203.6482786</v>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AB40" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB40" t="n">
+      <c r="AC40" t="n">
         <v>180.0705591735797</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AD40" t="n">
         <v>0.9441230731824004</v>
       </c>
     </row>
@@ -4489,38 +4597,41 @@
       <c r="S41" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9db5</t>
-        </is>
-      </c>
-      <c r="U41" t="n">
+      <c r="T41" t="n">
+        <v>37.51995689988488</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d0e8</t>
+        </is>
+      </c>
+      <c r="V41" t="n">
         <v>34.22943164386134</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>650</v>
       </c>
-      <c r="W41" t="n">
+      <c r="X41" t="n">
         <v>36.47262796494356</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>235.3014</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="n">
         <v>228.980642</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41" t="n">
         <v>251.8695894</v>
       </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AB41" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB41" t="n">
+      <c r="AC41" t="n">
         <v>185.0446433557834</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AD41" t="n">
         <v>0.9523875525999002</v>
       </c>
     </row>
@@ -4592,38 +4703,41 @@
       <c r="S42" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9dbf</t>
-        </is>
-      </c>
-      <c r="U42" t="n">
+      <c r="T42" t="n">
+        <v>30.084522069939</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d0f2</t>
+        </is>
+      </c>
+      <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>650</v>
       </c>
-      <c r="W42" t="n">
+      <c r="X42" t="n">
         <v>0</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>197.2008</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Z42" t="n">
         <v>174.9502216</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AA42" t="n">
         <v>183.5661776</v>
       </c>
-      <c r="AA42" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB42" t="n">
+      <c r="AC42" t="n">
         <v>0</v>
       </c>
-      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4693,38 +4807,41 @@
       <c r="S43" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9db3</t>
-        </is>
-      </c>
-      <c r="U43" t="n">
+      <c r="T43" t="n">
+        <v>26.53790402452263</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d0e6</t>
+        </is>
+      </c>
+      <c r="V43" t="n">
         <v>29.59870102489949</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>650</v>
       </c>
-      <c r="W43" t="n">
+      <c r="X43" t="n">
         <v>31.43502512144142</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Y43" t="n">
         <v>238.5344</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Z43" t="n">
         <v>209.8760488</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AA43" t="n">
         <v>166.7057067</v>
       </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AB43" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB43" t="n">
+      <c r="AC43" t="n">
         <v>159.4862596155188</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AD43" t="n">
         <v>0.5905874344116662</v>
       </c>
     </row>
@@ -4796,38 +4913,41 @@
       <c r="S44" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9de0</t>
-        </is>
-      </c>
-      <c r="U44" t="n">
+      <c r="T44" t="n">
+        <v>32.33585772498069</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d113</t>
+        </is>
+      </c>
+      <c r="V44" t="n">
         <v>32.42200980001902</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>650</v>
       </c>
-      <c r="W44" t="n">
+      <c r="X44" t="n">
         <v>34.13433353781024</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>171.2053376</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Z44" t="n">
         <v>173.1108276</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AA44" t="n">
         <v>162.4316496</v>
       </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AB44" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB44" t="n">
+      <c r="AC44" t="n">
         <v>173.1812575107714</v>
       </c>
-      <c r="AC44" t="n">
+      <c r="AD44" t="n">
         <v>0.8968262805559701</v>
       </c>
     </row>
@@ -4899,38 +5019,41 @@
       <c r="S45" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9de2</t>
-        </is>
-      </c>
-      <c r="U45" t="n">
+      <c r="T45" t="n">
+        <v>40.45752890901229</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d115</t>
+        </is>
+      </c>
+      <c r="V45" t="n">
         <v>31.8667744488487</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>650</v>
       </c>
-      <c r="W45" t="n">
+      <c r="X45" t="n">
         <v>33.37995353067254</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
         <v>202.7786464</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Z45" t="n">
         <v>190.157481</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AA45" t="n">
         <v>170.177169</v>
       </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AB45" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB45" t="n">
+      <c r="AC45" t="n">
         <v>169.3538947139446</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AD45" t="n">
         <v>0.9259907574710414</v>
       </c>
     </row>
@@ -5002,38 +5125,41 @@
       <c r="S46" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9de6</t>
-        </is>
-      </c>
-      <c r="U46" t="n">
+      <c r="T46" t="n">
+        <v>30.2400939838035</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d119</t>
+        </is>
+      </c>
+      <c r="V46" t="n">
         <v>39.30502626083687</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>650</v>
       </c>
-      <c r="W46" t="n">
+      <c r="X46" t="n">
         <v>41.36051660906931</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Y46" t="n">
         <v>192.0861888</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Z46" t="n">
         <v>214.1369298</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AA46" t="n">
         <v>188.6813126</v>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AB46" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB46" t="n">
+      <c r="AC46" t="n">
         <v>209.8434489637695</v>
       </c>
-      <c r="AC46" t="n">
+      <c r="AD46" t="n">
         <v>0.9646970195053299</v>
       </c>
     </row>
@@ -5105,38 +5231,41 @@
       <c r="S47" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e05</t>
-        </is>
-      </c>
-      <c r="U47" t="n">
+      <c r="T47" t="n">
+        <v>33.60978799933261</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d138</t>
+        </is>
+      </c>
+      <c r="V47" t="n">
         <v>33.96142472086805</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>650</v>
       </c>
-      <c r="W47" t="n">
+      <c r="X47" t="n">
         <v>35.65029135835977</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Y47" t="n">
         <v>201.6904292</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Z47" t="n">
         <v>188.6793804</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AA47" t="n">
         <v>192.0811828</v>
       </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AB47" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB47" t="n">
+      <c r="AC47" t="n">
         <v>180.8725013256022</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AD47" t="n">
         <v>0.9799708671437923</v>
       </c>
     </row>
@@ -5208,38 +5337,41 @@
       <c r="S48" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e01</t>
-        </is>
-      </c>
-      <c r="U48" t="n">
+      <c r="T48" t="n">
+        <v>32.55806047294546</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d134</t>
+        </is>
+      </c>
+      <c r="V48" t="n">
         <v>41.35811337821251</v>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>650</v>
       </c>
-      <c r="W48" t="n">
+      <c r="X48" t="n">
         <v>43.66020967603209</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Y48" t="n">
         <v>208.0195692</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Z48" t="n">
         <v>189.7357518</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AA48" t="n">
         <v>189.7339806</v>
       </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AB48" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB48" t="n">
+      <c r="AC48" t="n">
         <v>221.5109899979094</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AD48" t="n">
         <v>0.9478406730988945</v>
       </c>
     </row>
@@ -5311,38 +5443,41 @@
       <c r="S49" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e03</t>
-        </is>
-      </c>
-      <c r="U49" t="n">
+      <c r="T49" t="n">
+        <v>23.84082212602404</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d136</t>
+        </is>
+      </c>
+      <c r="V49" t="n">
         <v>28.90995234584716</v>
       </c>
-      <c r="V49" t="n">
+      <c r="W49" t="n">
         <v>650</v>
       </c>
-      <c r="W49" t="n">
+      <c r="X49" t="n">
         <v>30.60693864680155</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Y49" t="n">
         <v>174.7723216</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Z49" t="n">
         <v>175.4513208</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AA49" t="n">
         <v>149.9343009</v>
       </c>
-      <c r="AA49" t="inlineStr">
+      <c r="AB49" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB49" t="n">
+      <c r="AC49" t="n">
         <v>155.2849455090945</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AD49" t="n">
         <v>0.6792319492848132</v>
       </c>
     </row>
@@ -5414,38 +5549,41 @@
       <c r="S50" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9dff</t>
-        </is>
-      </c>
-      <c r="U50" t="n">
+      <c r="T50" t="n">
+        <v>29.84792303435</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d132</t>
+        </is>
+      </c>
+      <c r="V50" t="n">
         <v>34.25757885762052</v>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>650</v>
       </c>
-      <c r="W50" t="n">
+      <c r="X50" t="n">
         <v>36.09183244298664</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Y50" t="n">
         <v>178.2395896</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Z50" t="n">
         <v>200.8354572</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AA50" t="n">
         <v>212.600273</v>
       </c>
-      <c r="AA50" t="inlineStr">
+      <c r="AB50" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB50" t="n">
+      <c r="AC50" t="n">
         <v>183.1126692841666</v>
       </c>
-      <c r="AC50" t="n">
+      <c r="AD50" t="n">
         <v>0.8998671896578967</v>
       </c>
     </row>
@@ -5517,38 +5655,41 @@
       <c r="S51" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e2e</t>
-        </is>
-      </c>
-      <c r="U51" t="n">
+      <c r="T51" t="n">
+        <v>27.3283830352178</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d161</t>
+        </is>
+      </c>
+      <c r="V51" t="n">
         <v>30.85423689062636</v>
       </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
         <v>650</v>
       </c>
-      <c r="W51" t="n">
+      <c r="X51" t="n">
         <v>32.38184892499495</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Y51" t="n">
         <v>194.1947604</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Z51" t="n">
         <v>216.334208</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AA51" t="n">
         <v>207.8843932</v>
       </c>
-      <c r="AA51" t="inlineStr">
+      <c r="AB51" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB51" t="n">
+      <c r="AC51" t="n">
         <v>164.2899900518814</v>
       </c>
-      <c r="AC51" t="n">
+      <c r="AD51" t="n">
         <v>0.9572274154754559</v>
       </c>
     </row>
@@ -5620,38 +5761,41 @@
       <c r="S52" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e2c</t>
-        </is>
-      </c>
-      <c r="U52" t="n">
+      <c r="T52" t="n">
+        <v>27.70200954691511</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d15f</t>
+        </is>
+      </c>
+      <c r="V52" t="n">
         <v>37.75766475973374</v>
       </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
         <v>650</v>
       </c>
-      <c r="W52" t="n">
+      <c r="X52" t="n">
         <v>39.72235375181543</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Y52" t="n">
         <v>202.1448852</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Z52" t="n">
         <v>213.350752</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AA52" t="n">
         <v>189.653709</v>
       </c>
-      <c r="AA52" t="inlineStr">
+      <c r="AB52" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB52" t="n">
+      <c r="AC52" t="n">
         <v>201.5321953307547</v>
       </c>
-      <c r="AC52" t="n">
+      <c r="AD52" t="n">
         <v>0.8824117920846783</v>
       </c>
     </row>
@@ -5723,38 +5867,41 @@
       <c r="S53" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e34</t>
-        </is>
-      </c>
-      <c r="U53" t="n">
+      <c r="T53" t="n">
+        <v>41.93540680931516</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d167</t>
+        </is>
+      </c>
+      <c r="V53" t="n">
         <v>29.37112660874637</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>650</v>
       </c>
-      <c r="W53" t="n">
+      <c r="X53" t="n">
         <v>31.31760972163682</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
         <v>237.2183298</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Z53" t="n">
         <v>200.996328</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AA53" t="n">
         <v>193.0396564</v>
       </c>
-      <c r="AA53" t="inlineStr">
+      <c r="AB53" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB53" t="n">
+      <c r="AC53" t="n">
         <v>158.8905501206559</v>
       </c>
-      <c r="AC53" t="n">
+      <c r="AD53" t="n">
         <v>0.7489627966810937</v>
       </c>
     </row>
@@ -5826,38 +5973,41 @@
       <c r="S54" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e30</t>
-        </is>
-      </c>
-      <c r="U54" t="n">
+      <c r="T54" t="n">
+        <v>30.68271344522816</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d163</t>
+        </is>
+      </c>
+      <c r="V54" t="n">
         <v>31.26630668964022</v>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>650</v>
       </c>
-      <c r="W54" t="n">
+      <c r="X54" t="n">
         <v>33.26655763354914</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Y54" t="n">
         <v>183.522582</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Z54" t="n">
         <v>214.848088</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AA54" t="n">
         <v>213.2449926</v>
       </c>
-      <c r="AA54" t="inlineStr">
+      <c r="AB54" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB54" t="n">
+      <c r="AC54" t="n">
         <v>168.7785782502837</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AD54" t="n">
         <v>0.9571576665365342</v>
       </c>
     </row>
@@ -5929,38 +6079,41 @@
       <c r="S55" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e2a</t>
-        </is>
-      </c>
-      <c r="U55" t="n">
+      <c r="T55" t="n">
+        <v>33.27158390109972</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d15d</t>
+        </is>
+      </c>
+      <c r="V55" t="n">
         <v>35.93591371347527</v>
       </c>
-      <c r="V55" t="n">
+      <c r="W55" t="n">
         <v>650</v>
       </c>
-      <c r="W55" t="n">
+      <c r="X55" t="n">
         <v>37.8374520489627</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Y55" t="n">
         <v>198.0672057</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="Z55" t="n">
         <v>179.28776</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AA55" t="n">
         <v>178.7524684</v>
       </c>
-      <c r="AA55" t="inlineStr">
+      <c r="AB55" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB55" t="n">
+      <c r="AC55" t="n">
         <v>191.969106986796</v>
       </c>
-      <c r="AC55" t="n">
+      <c r="AD55" t="n">
         <v>0.9883236980106775</v>
       </c>
     </row>
@@ -6032,38 +6185,41 @@
       <c r="S56" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eb0</t>
-        </is>
-      </c>
-      <c r="U56" t="n">
+      <c r="T56" t="n">
+        <v>21.98782479412865</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1e3</t>
+        </is>
+      </c>
+      <c r="V56" t="n">
         <v>26.75159642829821</v>
       </c>
-      <c r="V56" t="n">
+      <c r="W56" t="n">
         <v>650</v>
       </c>
-      <c r="W56" t="n">
+      <c r="X56" t="n">
         <v>27.98827875242617</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Y56" t="n">
         <v>186.074408</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="Z56" t="n">
         <v>200.636169</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AA56" t="n">
         <v>176.0464584</v>
       </c>
-      <c r="AA56" t="inlineStr">
+      <c r="AB56" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB56" t="n">
+      <c r="AC56" t="n">
         <v>141.9991195825794</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AD56" t="n">
         <v>0.8882258618506267</v>
       </c>
     </row>
@@ -6135,38 +6291,41 @@
       <c r="S57" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eac</t>
-        </is>
-      </c>
-      <c r="U57" t="n">
+      <c r="T57" t="n">
+        <v>29.8958373713266</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1df</t>
+        </is>
+      </c>
+      <c r="V57" t="n">
         <v>38.40391965831266</v>
       </c>
-      <c r="V57" t="n">
+      <c r="W57" t="n">
         <v>650</v>
       </c>
-      <c r="W57" t="n">
+      <c r="X57" t="n">
         <v>40.49156779534093</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Y57" t="n">
         <v>206.45495</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="Z57" t="n">
         <v>179.998743</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AA57" t="n">
         <v>180.8886672</v>
       </c>
-      <c r="AA57" t="inlineStr">
+      <c r="AB57" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB57" t="n">
+      <c r="AC57" t="n">
         <v>205.4348189224862</v>
       </c>
-      <c r="AC57" t="n">
+      <c r="AD57" t="n">
         <v>0.9013370143492309</v>
       </c>
     </row>
@@ -6238,38 +6397,41 @@
       <c r="S58" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eae</t>
-        </is>
-      </c>
-      <c r="U58" t="n">
+      <c r="T58" t="n">
+        <v>27.37609638250515</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1e1</t>
+        </is>
+      </c>
+      <c r="V58" t="n">
         <v>32.16334363604162</v>
       </c>
-      <c r="V58" t="n">
+      <c r="W58" t="n">
         <v>650</v>
       </c>
-      <c r="W58" t="n">
+      <c r="X58" t="n">
         <v>34.23085162185648</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Y58" t="n">
         <v>220.036024</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="Z58" t="n">
         <v>193.494339</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AA58" t="n">
         <v>203.959704</v>
       </c>
-      <c r="AA58" t="inlineStr">
+      <c r="AB58" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB58" t="n">
+      <c r="AC58" t="n">
         <v>173.6709440356055</v>
       </c>
-      <c r="AC58" t="n">
+      <c r="AD58" t="n">
         <v>0.9370641243605071</v>
       </c>
     </row>
@@ -6341,38 +6503,41 @@
       <c r="S59" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eb4</t>
-        </is>
-      </c>
-      <c r="U59" t="n">
+      <c r="T59" t="n">
+        <v>34.23979670876284</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1e7</t>
+        </is>
+      </c>
+      <c r="V59" t="n">
         <v>32.09378189939193</v>
       </c>
-      <c r="V59" t="n">
+      <c r="W59" t="n">
         <v>650</v>
       </c>
-      <c r="W59" t="n">
+      <c r="X59" t="n">
         <v>34.18766031910848</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Y59" t="n">
         <v>213.951036</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="Z59" t="n">
         <v>193.863744</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AA59" t="n">
         <v>199.9188864</v>
       </c>
-      <c r="AA59" t="inlineStr">
+      <c r="AB59" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB59" t="n">
+      <c r="AC59" t="n">
         <v>173.4518120547469</v>
       </c>
-      <c r="AC59" t="n">
+      <c r="AD59" t="n">
         <v>0.8533997831118163</v>
       </c>
     </row>
@@ -6444,38 +6609,41 @@
       <c r="S60" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eb0</t>
-        </is>
-      </c>
-      <c r="U60" t="n">
+      <c r="T60" t="n">
+        <v>27.46770745525233</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1e3</t>
+        </is>
+      </c>
+      <c r="V60" t="n">
         <v>26.75159642829821</v>
       </c>
-      <c r="V60" t="n">
+      <c r="W60" t="n">
         <v>650</v>
       </c>
-      <c r="W60" t="n">
+      <c r="X60" t="n">
         <v>27.98827875242617</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Y60" t="n">
         <v>157.27491</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="Z60" t="n">
         <v>142.0386852</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AA60" t="n">
         <v>140.9094048</v>
       </c>
-      <c r="AA60" t="inlineStr">
+      <c r="AB60" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB60" t="n">
+      <c r="AC60" t="n">
         <v>141.9991195825794</v>
       </c>
-      <c r="AC60" t="n">
+      <c r="AD60" t="n">
         <v>0.8882258618506267</v>
       </c>
     </row>
@@ -6547,38 +6715,41 @@
       <c r="S61" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eb6</t>
-        </is>
-      </c>
-      <c r="U61" t="n">
+      <c r="T61" t="n">
+        <v>22.37058286069859</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1e9</t>
+        </is>
+      </c>
+      <c r="V61" t="n">
         <v>24.93367827849588</v>
       </c>
-      <c r="V61" t="n">
+      <c r="W61" t="n">
         <v>650</v>
       </c>
-      <c r="W61" t="n">
+      <c r="X61" t="n">
         <v>26.12262468519387</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Y61" t="n">
         <v>145.60507</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="Z61" t="n">
         <v>124.0609752</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AA61" t="n">
         <v>143.3869452</v>
       </c>
-      <c r="AA61" t="inlineStr">
+      <c r="AB61" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB61" t="n">
+      <c r="AC61" t="n">
         <v>132.5336845218514</v>
       </c>
-      <c r="AC61" t="n">
+      <c r="AD61" t="n">
         <v>0.8296636048458956</v>
       </c>
     </row>
@@ -6650,38 +6821,41 @@
       <c r="S62" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e84</t>
-        </is>
-      </c>
-      <c r="U62" t="n">
+      <c r="T62" t="n">
+        <v>30.83395251891357</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1b7</t>
+        </is>
+      </c>
+      <c r="V62" t="n">
         <v>40.67925184789009</v>
       </c>
-      <c r="V62" t="n">
+      <c r="W62" t="n">
         <v>650</v>
       </c>
-      <c r="W62" t="n">
+      <c r="X62" t="n">
         <v>43.39585243653489</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Y62" t="n">
         <v>210.4465</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="Z62" t="n">
         <v>203.2142634</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AA62" t="n">
         <v>207.1496</v>
       </c>
-      <c r="AA62" t="inlineStr">
+      <c r="AB62" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB62" t="n">
+      <c r="AC62" t="n">
         <v>220.1697679958014</v>
       </c>
-      <c r="AC62" t="n">
+      <c r="AD62" t="n">
         <v>0.8964459112669956</v>
       </c>
     </row>
@@ -6753,38 +6927,41 @@
       <c r="S63" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e82</t>
-        </is>
-      </c>
-      <c r="U63" t="n">
+      <c r="T63" t="n">
+        <v>26.04999328378237</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1b5</t>
+        </is>
+      </c>
+      <c r="V63" t="n">
         <v>22.54187142791142</v>
       </c>
-      <c r="V63" t="n">
+      <c r="W63" t="n">
         <v>650</v>
       </c>
-      <c r="W63" t="n">
+      <c r="X63" t="n">
         <v>23.69980835184827</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Y63" t="n">
         <v>138.677</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="Z63" t="n">
         <v>91.30221450000001</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AA63" t="n">
         <v>118.7256</v>
       </c>
-      <c r="AA63" t="inlineStr">
+      <c r="AB63" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB63" t="n">
+      <c r="AC63" t="n">
         <v>120.2414750119848</v>
       </c>
-      <c r="AC63" t="n">
+      <c r="AD63" t="n">
         <v>0.9849522835179616</v>
       </c>
     </row>
@@ -6856,38 +7033,41 @@
       <c r="S64" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e93</t>
-        </is>
-      </c>
-      <c r="U64" t="n">
+      <c r="T64" t="n">
+        <v>20.58515230206198</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1c6</t>
+        </is>
+      </c>
+      <c r="V64" t="n">
         <v>29.08019406234924</v>
       </c>
-      <c r="V64" t="n">
+      <c r="W64" t="n">
         <v>650</v>
       </c>
-      <c r="W64" t="n">
+      <c r="X64" t="n">
         <v>30.66578121490211</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Y64" t="n">
         <v>148.0542308</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="Z64" t="n">
         <v>147.515963</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AA64" t="n">
         <v>160.897167</v>
       </c>
-      <c r="AA64" t="inlineStr">
+      <c r="AB64" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB64" t="n">
+      <c r="AC64" t="n">
         <v>155.58348451316</v>
       </c>
-      <c r="AC64" t="n">
+      <c r="AD64" t="n">
         <v>0.8163262551979622</v>
       </c>
     </row>
@@ -6959,38 +7139,41 @@
       <c r="S65" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e97</t>
-        </is>
-      </c>
-      <c r="U65" t="n">
+      <c r="T65" t="n">
+        <v>36.98361168795843</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1ca</t>
+        </is>
+      </c>
+      <c r="V65" t="n">
         <v>43.38638418527958</v>
       </c>
-      <c r="V65" t="n">
+      <c r="W65" t="n">
         <v>650</v>
       </c>
-      <c r="W65" t="n">
+      <c r="X65" t="n">
         <v>46.29831620342251</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Y65" t="n">
         <v>236.3077148</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="Z65" t="n">
         <v>252.50855</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AA65" t="n">
         <v>254.023302</v>
       </c>
-      <c r="AA65" t="inlineStr">
+      <c r="AB65" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB65" t="n">
+      <c r="AC65" t="n">
         <v>234.8954788251125</v>
       </c>
-      <c r="AC65" t="n">
+      <c r="AD65" t="n">
         <v>0.7791935043689573</v>
       </c>
     </row>
@@ -7062,38 +7245,41 @@
       <c r="S66" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e95</t>
-        </is>
-      </c>
-      <c r="U66" t="n">
+      <c r="T66" t="n">
+        <v>30.21116054246656</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1c8</t>
+        </is>
+      </c>
+      <c r="V66" t="n">
         <v>33.32622323966425</v>
       </c>
-      <c r="V66" t="n">
+      <c r="W66" t="n">
         <v>650</v>
       </c>
-      <c r="W66" t="n">
+      <c r="X66" t="n">
         <v>34.86079677150205</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Y66" t="n">
         <v>196.041336</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="Z66" t="n">
         <v>192.374588</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AA66" t="n">
         <v>212.0383212</v>
       </c>
-      <c r="AA66" t="inlineStr">
+      <c r="AB66" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB66" t="n">
+      <c r="AC66" t="n">
         <v>176.8669839716888</v>
       </c>
-      <c r="AC66" t="n">
+      <c r="AD66" t="n">
         <v>0.7603170909204702</v>
       </c>
     </row>
@@ -7165,38 +7351,41 @@
       <c r="S67" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e61</t>
-        </is>
-      </c>
-      <c r="U67" t="n">
+      <c r="T67" t="n">
+        <v>16.96199730106573</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d194</t>
+        </is>
+      </c>
+      <c r="V67" t="n">
         <v>24.10461459579914</v>
       </c>
-      <c r="V67" t="n">
+      <c r="W67" t="n">
         <v>650</v>
       </c>
-      <c r="W67" t="n">
+      <c r="X67" t="n">
         <v>25.24244905317495</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Y67" t="n">
         <v>113.773372</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="Z67" t="n">
         <v>105.2225832</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AA67" t="n">
         <v>145.3838103</v>
       </c>
-      <c r="AA67" t="inlineStr">
+      <c r="AB67" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB67" t="n">
+      <c r="AC67" t="n">
         <v>128.068094982377</v>
       </c>
-      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -7266,38 +7455,41 @@
       <c r="S68" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e65</t>
-        </is>
-      </c>
-      <c r="U68" t="n">
+      <c r="T68" t="n">
+        <v>37.03986706110714</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d198</t>
+        </is>
+      </c>
+      <c r="V68" t="n">
         <v>36.60183566358501</v>
       </c>
-      <c r="V68" t="n">
+      <c r="W68" t="n">
         <v>650</v>
       </c>
-      <c r="W68" t="n">
+      <c r="X68" t="n">
         <v>38.28575134014226</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Y68" t="n">
         <v>178.211388</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="Z68" t="n">
         <v>194.031663</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="AA68" t="n">
         <v>197.0165439</v>
       </c>
-      <c r="AA68" t="inlineStr">
+      <c r="AB68" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB68" t="n">
+      <c r="AC68" t="n">
         <v>194.243562848126</v>
       </c>
-      <c r="AC68" t="n">
+      <c r="AD68" t="n">
         <v>0.5374726112170195</v>
       </c>
     </row>
@@ -7369,38 +7561,41 @@
       <c r="S69" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e5f</t>
-        </is>
-      </c>
-      <c r="U69" t="n">
+      <c r="T69" t="n">
+        <v>31.66398738394879</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d192</t>
+        </is>
+      </c>
+      <c r="V69" t="n">
         <v>37.17551157320088</v>
       </c>
-      <c r="V69" t="n">
+      <c r="W69" t="n">
         <v>650</v>
       </c>
-      <c r="W69" t="n">
+      <c r="X69" t="n">
         <v>39.24645461442449</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Y69" t="n">
         <v>220.68932</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="Z69" t="n">
         <v>231.9967118</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AA69" t="n">
         <v>217.8043428</v>
       </c>
-      <c r="AA69" t="inlineStr">
+      <c r="AB69" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB69" t="n">
+      <c r="AC69" t="n">
         <v>199.1177110704904</v>
       </c>
-      <c r="AC69" t="n">
+      <c r="AD69" t="n">
         <v>0.9657947331155413</v>
       </c>
     </row>
@@ -7472,38 +7667,41 @@
       <c r="S70" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e67</t>
-        </is>
-      </c>
-      <c r="U70" t="n">
+      <c r="T70" t="n">
+        <v>16.96199730106573</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d19a</t>
+        </is>
+      </c>
+      <c r="V70" t="n">
         <v>20.90913542262717</v>
       </c>
-      <c r="V70" t="n">
+      <c r="W70" t="n">
         <v>650</v>
       </c>
-      <c r="W70" t="n">
+      <c r="X70" t="n">
         <v>21.94392189345892</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Y70" t="n">
         <v>131.02578</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="Z70" t="n">
         <v>120.066443</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AA70" t="n">
         <v>106.5088608</v>
       </c>
-      <c r="AA70" t="inlineStr">
+      <c r="AB70" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB70" t="n">
+      <c r="AC70" t="n">
         <v>111.3329482181873</v>
       </c>
-      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7573,38 +7771,41 @@
       <c r="S71" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f17</t>
-        </is>
-      </c>
-      <c r="U71" t="n">
+      <c r="T71" t="n">
+        <v>28.38671296453755</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d24a</t>
+        </is>
+      </c>
+      <c r="V71" t="n">
         <v>23.45561017631241</v>
       </c>
-      <c r="V71" t="n">
+      <c r="W71" t="n">
         <v>650</v>
       </c>
-      <c r="W71" t="n">
+      <c r="X71" t="n">
         <v>24.74788904089393</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Y71" t="n">
         <v>149.934981</v>
       </c>
-      <c r="Y71" t="n">
+      <c r="Z71" t="n">
         <v>198.0706965</v>
       </c>
-      <c r="Z71" t="n">
+      <c r="AA71" t="n">
         <v>155.7928064</v>
       </c>
-      <c r="AA71" t="inlineStr">
+      <c r="AB71" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB71" t="n">
+      <c r="AC71" t="n">
         <v>125.5589343817607</v>
       </c>
-      <c r="AC71" t="n">
+      <c r="AD71" t="n">
         <v>0.8172773353988583</v>
       </c>
     </row>
@@ -7676,38 +7877,41 @@
       <c r="S72" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f1b</t>
-        </is>
-      </c>
-      <c r="U72" t="n">
+      <c r="T72" t="n">
+        <v>33.4550247026566</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d24e</t>
+        </is>
+      </c>
+      <c r="V72" t="n">
         <v>29.34282427226523</v>
       </c>
-      <c r="V72" t="n">
+      <c r="W72" t="n">
         <v>650</v>
       </c>
-      <c r="W72" t="n">
+      <c r="X72" t="n">
         <v>31.3067430059759</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Y72" t="n">
         <v>168.808755</v>
       </c>
-      <c r="Y72" t="n">
+      <c r="Z72" t="n">
         <v>169.184835</v>
       </c>
-      <c r="Z72" t="n">
+      <c r="AA72" t="n">
         <v>181.1057721</v>
       </c>
-      <c r="AA72" t="inlineStr">
+      <c r="AB72" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB72" t="n">
+      <c r="AC72" t="n">
         <v>158.8354176107129</v>
       </c>
-      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7777,38 +7981,41 @@
       <c r="S73" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f13</t>
-        </is>
-      </c>
-      <c r="U73" t="n">
+      <c r="T73" t="n">
+        <v>33.1420643149842</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d246</t>
+        </is>
+      </c>
+      <c r="V73" t="n">
         <v>29.16230452194101</v>
       </c>
-      <c r="V73" t="n">
+      <c r="W73" t="n">
         <v>650</v>
       </c>
-      <c r="W73" t="n">
+      <c r="X73" t="n">
         <v>30.71324904255253</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Y73" t="n">
         <v>184.391871</v>
       </c>
-      <c r="Y73" t="n">
+      <c r="Z73" t="n">
         <v>196.8157104</v>
       </c>
-      <c r="Z73" t="n">
+      <c r="AA73" t="n">
         <v>161.4409687</v>
       </c>
-      <c r="AA73" t="inlineStr">
+      <c r="AB73" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB73" t="n">
+      <c r="AC73" t="n">
         <v>155.8243135328536</v>
       </c>
-      <c r="AC73" t="n">
+      <c r="AD73" t="n">
         <v>0.9511499180776199</v>
       </c>
     </row>
@@ -7880,38 +8087,41 @@
       <c r="S74" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f15</t>
-        </is>
-      </c>
-      <c r="U74" t="n">
+      <c r="T74" t="n">
+        <v>33.14005842525147</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d248</t>
+        </is>
+      </c>
+      <c r="V74" t="n">
         <v>29.64478300219904</v>
       </c>
-      <c r="V74" t="n">
+      <c r="W74" t="n">
         <v>650</v>
       </c>
-      <c r="W74" t="n">
+      <c r="X74" t="n">
         <v>31.43136992710871</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Y74" t="n">
         <v>189.527898</v>
       </c>
-      <c r="Y74" t="n">
+      <c r="Z74" t="n">
         <v>190.0324311</v>
       </c>
-      <c r="Z74" t="n">
+      <c r="AA74" t="n">
         <v>196.1600597</v>
       </c>
-      <c r="AA74" t="inlineStr">
+      <c r="AB74" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB74" t="n">
+      <c r="AC74" t="n">
         <v>159.4677149103678</v>
       </c>
-      <c r="AC74" t="n">
+      <c r="AD74" t="n">
         <v>0.9713479889305376</v>
       </c>
     </row>
@@ -7983,38 +8193,41 @@
       <c r="S75" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f19</t>
-        </is>
-      </c>
-      <c r="U75" t="n">
+      <c r="T75" t="n">
+        <v>28.87216403715156</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d24c</t>
+        </is>
+      </c>
+      <c r="V75" t="n">
         <v>30.07532710309617</v>
       </c>
-      <c r="V75" t="n">
+      <c r="W75" t="n">
         <v>650</v>
       </c>
-      <c r="W75" t="n">
+      <c r="X75" t="n">
         <v>32.0676294562499</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Y75" t="n">
         <v>194.028798</v>
       </c>
-      <c r="Y75" t="n">
+      <c r="Z75" t="n">
         <v>164.0007363</v>
       </c>
-      <c r="Z75" t="n">
+      <c r="AA75" t="n">
         <v>172.698031</v>
       </c>
-      <c r="AA75" t="inlineStr">
+      <c r="AB75" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB75" t="n">
+      <c r="AC75" t="n">
         <v>162.695790983329</v>
       </c>
-      <c r="AC75" t="n">
+      <c r="AD75" t="n">
         <v>0.84830529316353</v>
       </c>
     </row>
@@ -8086,38 +8299,41 @@
       <c r="S76" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9edf</t>
-        </is>
-      </c>
-      <c r="U76" t="n">
+      <c r="T76" t="n">
+        <v>29.46620218500994</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d212</t>
+        </is>
+      </c>
+      <c r="V76" t="n">
         <v>29.18439320775132</v>
       </c>
-      <c r="V76" t="n">
+      <c r="W76" t="n">
         <v>650</v>
       </c>
-      <c r="W76" t="n">
+      <c r="X76" t="n">
         <v>30.6435079454619</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Y76" t="n">
         <v>191.040336</v>
       </c>
-      <c r="Y76" t="n">
+      <c r="Z76" t="n">
         <v>163.4123205</v>
       </c>
-      <c r="Z76" t="n">
+      <c r="AA76" t="n">
         <v>182.77805</v>
       </c>
-      <c r="AA76" t="inlineStr">
+      <c r="AB76" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB76" t="n">
+      <c r="AC76" t="n">
         <v>155.4704806132521</v>
       </c>
-      <c r="AC76" t="n">
+      <c r="AD76" t="n">
         <v>0.6656067885610286</v>
       </c>
     </row>
@@ -8189,38 +8405,41 @@
       <c r="S77" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9ee3</t>
-        </is>
-      </c>
-      <c r="U77" t="n">
+      <c r="T77" t="n">
+        <v>27.70200954691521</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d216</t>
+        </is>
+      </c>
+      <c r="V77" t="n">
         <v>35.4713803561117</v>
       </c>
-      <c r="V77" t="n">
+      <c r="W77" t="n">
         <v>650</v>
       </c>
-      <c r="W77" t="n">
+      <c r="X77" t="n">
         <v>37.24803453586532</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Y77" t="n">
         <v>212.9399484</v>
       </c>
-      <c r="Y77" t="n">
+      <c r="Z77" t="n">
         <v>209.3014858</v>
       </c>
-      <c r="Z77" t="n">
+      <c r="AA77" t="n">
         <v>198.9535912</v>
       </c>
-      <c r="AA77" t="inlineStr">
+      <c r="AB77" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB77" t="n">
+      <c r="AC77" t="n">
         <v>188.9786848652096</v>
       </c>
-      <c r="AC77" t="n">
+      <c r="AD77" t="n">
         <v>0.9374135761603815</v>
       </c>
     </row>
@@ -8292,38 +8511,41 @@
       <c r="S78" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9ee5</t>
-        </is>
-      </c>
-      <c r="U78" t="n">
+      <c r="T78" t="n">
+        <v>29.21920718153239</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d218</t>
+        </is>
+      </c>
+      <c r="V78" t="n">
         <v>25.49833861629317</v>
       </c>
-      <c r="V78" t="n">
+      <c r="W78" t="n">
         <v>650</v>
       </c>
-      <c r="W78" t="n">
+      <c r="X78" t="n">
         <v>26.70852705715236</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Y78" t="n">
         <v>168.8070048</v>
       </c>
-      <c r="Y78" t="n">
+      <c r="Z78" t="n">
         <v>145.6034228</v>
       </c>
-      <c r="Z78" t="n">
+      <c r="AA78" t="n">
         <v>127.12245</v>
       </c>
-      <c r="AA78" t="inlineStr">
+      <c r="AB78" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB78" t="n">
+      <c r="AC78" t="n">
         <v>135.5062725011046</v>
       </c>
-      <c r="AC78" t="n">
+      <c r="AD78" t="n">
         <v>0.8884303546239278</v>
       </c>
     </row>
@@ -8395,38 +8617,41 @@
       <c r="S79" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9ee1</t>
-        </is>
-      </c>
-      <c r="U79" t="n">
+      <c r="T79" t="n">
+        <v>25.79125257834085</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d214</t>
+        </is>
+      </c>
+      <c r="V79" t="n">
         <v>28.504458265815</v>
       </c>
-      <c r="V79" t="n">
+      <c r="W79" t="n">
         <v>650</v>
       </c>
-      <c r="W79" t="n">
+      <c r="X79" t="n">
         <v>30.37328768699431</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Y79" t="n">
         <v>203.842008</v>
       </c>
-      <c r="Y79" t="n">
+      <c r="Z79" t="n">
         <v>184.9533477</v>
       </c>
-      <c r="Z79" t="n">
+      <c r="AA79" t="n">
         <v>204.9745152</v>
       </c>
-      <c r="AA79" t="inlineStr">
+      <c r="AB79" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB79" t="n">
+      <c r="AC79" t="n">
         <v>154.0995124613628</v>
       </c>
-      <c r="AC79" t="n">
+      <c r="AD79" t="n">
         <v>0.9577152052623559</v>
       </c>
     </row>
@@ -8498,38 +8723,41 @@
       <c r="S80" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f02</t>
-        </is>
-      </c>
-      <c r="U80" t="n">
+      <c r="T80" t="n">
+        <v>32.68483238424619</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d235</t>
+        </is>
+      </c>
+      <c r="V80" t="n">
         <v>34.92883069854791</v>
       </c>
-      <c r="V80" t="n">
+      <c r="W80" t="n">
         <v>650</v>
       </c>
-      <c r="W80" t="n">
+      <c r="X80" t="n">
         <v>36.5452183595065</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Y80" t="n">
         <v>250.5981162</v>
       </c>
-      <c r="Y80" t="n">
+      <c r="Z80" t="n">
         <v>278.8856137</v>
       </c>
-      <c r="Z80" t="n">
+      <c r="AA80" t="n">
         <v>319.0506036</v>
       </c>
-      <c r="AA80" t="inlineStr">
+      <c r="AB80" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB80" t="n">
+      <c r="AC80" t="n">
         <v>185.412932245903</v>
       </c>
-      <c r="AC80" t="n">
+      <c r="AD80" t="n">
         <v>0.9378491691794111</v>
       </c>
     </row>
@@ -8601,38 +8829,41 @@
       <c r="S81" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f00</t>
-        </is>
-      </c>
-      <c r="U81" t="n">
+      <c r="T81" t="n">
+        <v>53.57244718260473</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d233</t>
+        </is>
+      </c>
+      <c r="V81" t="n">
         <v>38.37429191068769</v>
       </c>
-      <c r="V81" t="n">
+      <c r="W81" t="n">
         <v>650</v>
       </c>
-      <c r="W81" t="n">
+      <c r="X81" t="n">
         <v>40.14711373068555</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Y81" t="n">
         <v>247.933308</v>
       </c>
-      <c r="Y81" t="n">
+      <c r="Z81" t="n">
         <v>240.8330991</v>
       </c>
-      <c r="Z81" t="n">
+      <c r="AA81" t="n">
         <v>275.5380104</v>
       </c>
-      <c r="AA81" t="inlineStr">
+      <c r="AB81" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB81" t="n">
+      <c r="AC81" t="n">
         <v>203.6872239971118</v>
       </c>
-      <c r="AC81" t="n">
+      <c r="AD81" t="n">
         <v>0.9310852892330113</v>
       </c>
     </row>
@@ -8704,38 +8935,41 @@
       <c r="S82" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f40</t>
-        </is>
-      </c>
-      <c r="U82" t="n">
+      <c r="T82" t="n">
+        <v>29.73982798464326</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d273</t>
+        </is>
+      </c>
+      <c r="V82" t="n">
         <v>35.07836596889597</v>
       </c>
-      <c r="V82" t="n">
+      <c r="W82" t="n">
         <v>650</v>
       </c>
-      <c r="W82" t="n">
+      <c r="X82" t="n">
         <v>37.22514379611263</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Y82" t="n">
         <v>194.812695</v>
       </c>
-      <c r="Y82" t="n">
+      <c r="Z82" t="n">
         <v>140.0544524</v>
       </c>
-      <c r="Z82" t="n">
+      <c r="AA82" t="n">
         <v>229.5389558</v>
       </c>
-      <c r="AA82" t="inlineStr">
+      <c r="AB82" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB82" t="n">
+      <c r="AC82" t="n">
         <v>188.8625482167137</v>
       </c>
-      <c r="AC82" t="n">
+      <c r="AD82" t="n">
         <v>0.9909374783237703</v>
       </c>
     </row>
@@ -8807,38 +9041,41 @@
       <c r="S83" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f40</t>
-        </is>
-      </c>
-      <c r="U83" t="n">
+      <c r="T83" t="n">
+        <v>31.5389983048502</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d273</t>
+        </is>
+      </c>
+      <c r="V83" t="n">
         <v>35.07836596889597</v>
       </c>
-      <c r="V83" t="n">
+      <c r="W83" t="n">
         <v>650</v>
       </c>
-      <c r="W83" t="n">
+      <c r="X83" t="n">
         <v>37.22514379611263</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Y83" t="n">
         <v>187.4868381</v>
       </c>
-      <c r="Y83" t="n">
+      <c r="Z83" t="n">
         <v>255.8095128</v>
       </c>
-      <c r="Z83" t="n">
+      <c r="AA83" t="n">
         <v>193.0430411</v>
       </c>
-      <c r="AA83" t="inlineStr">
+      <c r="AB83" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB83" t="n">
+      <c r="AC83" t="n">
         <v>188.8625482167137</v>
       </c>
-      <c r="AC83" t="n">
+      <c r="AD83" t="n">
         <v>0.9909374783237703</v>
       </c>
     </row>
@@ -8910,38 +9147,41 @@
       <c r="S84" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f44</t>
-        </is>
-      </c>
-      <c r="U84" t="n">
+      <c r="T84" t="n">
+        <v>23.38893665607673</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d277</t>
+        </is>
+      </c>
+      <c r="V84" t="n">
         <v>22.75836596460734</v>
       </c>
-      <c r="V84" t="n">
+      <c r="W84" t="n">
         <v>650</v>
       </c>
-      <c r="W84" t="n">
+      <c r="X84" t="n">
         <v>23.92613145938843</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Y84" t="n">
         <v>192.6649764</v>
       </c>
-      <c r="Y84" t="n">
+      <c r="Z84" t="n">
         <v>179.996578</v>
       </c>
-      <c r="Z84" t="n">
+      <c r="AA84" t="n">
         <v>154.3515579</v>
       </c>
-      <c r="AA84" t="inlineStr">
+      <c r="AB84" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB84" t="n">
+      <c r="AC84" t="n">
         <v>121.389730047465</v>
       </c>
-      <c r="AC84" t="n">
+      <c r="AD84" t="n">
         <v>0.9591681250149979</v>
       </c>
     </row>
@@ -9013,38 +9253,41 @@
       <c r="S85" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f5b</t>
-        </is>
-      </c>
-      <c r="U85" t="n">
+      <c r="T85" t="n">
+        <v>40.75549832200399</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d28e</t>
+        </is>
+      </c>
+      <c r="V85" t="n">
         <v>33.35784632264981</v>
       </c>
-      <c r="V85" t="n">
+      <c r="W85" t="n">
         <v>650</v>
       </c>
-      <c r="W85" t="n">
+      <c r="X85" t="n">
         <v>35.46748611602736</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Y85" t="n">
         <v>227.43788</v>
       </c>
-      <c r="Y85" t="n">
+      <c r="Z85" t="n">
         <v>211.2059622</v>
       </c>
-      <c r="Z85" t="n">
+      <c r="AA85" t="n">
         <v>214.8492135</v>
       </c>
-      <c r="AA85" t="inlineStr">
+      <c r="AB85" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB85" t="n">
+      <c r="AC85" t="n">
         <v>179.945035092473</v>
       </c>
-      <c r="AC85" t="n">
+      <c r="AD85" t="n">
         <v>0.9870018251029924</v>
       </c>
     </row>
@@ -9116,38 +9359,41 @@
       <c r="S86" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f5f</t>
-        </is>
-      </c>
-      <c r="U86" t="n">
+      <c r="T86" t="n">
+        <v>25.18460827935449</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d292</t>
+        </is>
+      </c>
+      <c r="V86" t="n">
         <v>31.04787705045162</v>
       </c>
-      <c r="V86" t="n">
+      <c r="W86" t="n">
         <v>650</v>
       </c>
-      <c r="W86" t="n">
+      <c r="X86" t="n">
         <v>33.13368738475587</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Y86" t="n">
         <v>216.92006</v>
       </c>
-      <c r="Y86" t="n">
+      <c r="Z86" t="n">
         <v>213.357303</v>
       </c>
-      <c r="Z86" t="n">
+      <c r="AA86" t="n">
         <v>221.77578</v>
       </c>
-      <c r="AA86" t="inlineStr">
+      <c r="AB86" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB86" t="n">
+      <c r="AC86" t="n">
         <v>168.1044582547578</v>
       </c>
-      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -9217,38 +9463,41 @@
       <c r="S87" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f5d</t>
-        </is>
-      </c>
-      <c r="U87" t="n">
+      <c r="T87" t="n">
+        <v>25.18460827935449</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d290</t>
+        </is>
+      </c>
+      <c r="V87" t="n">
         <v>23.7487084593461</v>
       </c>
-      <c r="V87" t="n">
+      <c r="W87" t="n">
         <v>650</v>
       </c>
-      <c r="W87" t="n">
+      <c r="X87" t="n">
         <v>24.92495337039063</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Y87" t="n">
         <v>209.30032</v>
       </c>
-      <c r="Y87" t="n">
+      <c r="Z87" t="n">
         <v>204.3149487</v>
       </c>
-      <c r="Z87" t="n">
+      <c r="AA87" t="n">
         <v>193.2056565</v>
       </c>
-      <c r="AA87" t="inlineStr">
+      <c r="AB87" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB87" t="n">
+      <c r="AC87" t="n">
         <v>126.4572739731452</v>
       </c>
-      <c r="AC87" t="n">
+      <c r="AD87" t="n">
         <v>0.9777425581295268</v>
       </c>
     </row>
@@ -9320,38 +9569,41 @@
       <c r="S88" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f78</t>
-        </is>
-      </c>
-      <c r="U88" t="n">
+      <c r="T88" t="n">
+        <v>17.71824369658218</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2ab</t>
+        </is>
+      </c>
+      <c r="V88" t="n">
         <v>26.82585122829034</v>
       </c>
-      <c r="V88" t="n">
+      <c r="W88" t="n">
         <v>650</v>
       </c>
-      <c r="W88" t="n">
+      <c r="X88" t="n">
         <v>28.62969295236623</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Y88" t="n">
         <v>200.0373</v>
       </c>
-      <c r="Y88" t="n">
+      <c r="Z88" t="n">
         <v>216.0380712</v>
       </c>
-      <c r="Z88" t="n">
+      <c r="AA88" t="n">
         <v>204.0411248</v>
       </c>
-      <c r="AA88" t="inlineStr">
+      <c r="AB88" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB88" t="n">
+      <c r="AC88" t="n">
         <v>145.2533479860091</v>
       </c>
-      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -9421,38 +9673,41 @@
       <c r="S89" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f76</t>
-        </is>
-      </c>
-      <c r="U89" t="n">
+      <c r="T89" t="n">
+        <v>20.03295143990844</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2a9</t>
+        </is>
+      </c>
+      <c r="V89" t="n">
         <v>29.99725348006667</v>
       </c>
-      <c r="V89" t="n">
+      <c r="W89" t="n">
         <v>650</v>
       </c>
-      <c r="W89" t="n">
+      <c r="X89" t="n">
         <v>31.81175183768788</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Y89" t="n">
         <v>227.7557</v>
       </c>
-      <c r="Y89" t="n">
+      <c r="Z89" t="n">
         <v>200.880792</v>
       </c>
-      <c r="Z89" t="n">
+      <c r="AA89" t="n">
         <v>205.2503952</v>
       </c>
-      <c r="AA89" t="inlineStr">
+      <c r="AB89" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB89" t="n">
+      <c r="AC89" t="n">
         <v>161.39759051598</v>
       </c>
-      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -9522,38 +9777,41 @@
       <c r="S90" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f8f</t>
-        </is>
-      </c>
-      <c r="U90" t="n">
+      <c r="T90" t="n">
+        <v>24.66489879432554</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2c2</t>
+        </is>
+      </c>
+      <c r="V90" t="n">
         <v>32.32488457947977</v>
       </c>
-      <c r="V90" t="n">
+      <c r="W90" t="n">
         <v>650</v>
       </c>
-      <c r="W90" t="n">
+      <c r="X90" t="n">
         <v>34.49344494185626</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Y90" t="n">
         <v>212.6408115</v>
       </c>
-      <c r="Y90" t="n">
+      <c r="Z90" t="n">
         <v>216.5177712</v>
       </c>
-      <c r="Z90" t="n">
+      <c r="AA90" t="n">
         <v>226.0625328</v>
       </c>
-      <c r="AA90" t="inlineStr">
+      <c r="AB90" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB90" t="n">
+      <c r="AC90" t="n">
         <v>175.0032167551275</v>
       </c>
-      <c r="AC90" t="n">
+      <c r="AD90" t="n">
         <v>0.7053725327002828</v>
       </c>
     </row>
@@ -9625,38 +9883,41 @@
       <c r="S91" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f97</t>
-        </is>
-      </c>
-      <c r="U91" t="n">
+      <c r="T91" t="n">
+        <v>35.88947025932993</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2ca</t>
+        </is>
+      </c>
+      <c r="V91" t="n">
         <v>15.49633590386625</v>
       </c>
-      <c r="V91" t="n">
+      <c r="W91" t="n">
         <v>650</v>
       </c>
-      <c r="W91" t="n">
+      <c r="X91" t="n">
         <v>16.40557708244201</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Y91" t="n">
         <v>168.7624641</v>
       </c>
-      <c r="Y91" t="n">
+      <c r="Z91" t="n">
         <v>179.7764928</v>
       </c>
-      <c r="Z91" t="n">
+      <c r="AA91" t="n">
         <v>166.7104608</v>
       </c>
-      <c r="AA91" t="inlineStr">
+      <c r="AB91" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB91" t="n">
+      <c r="AC91" t="n">
         <v>83.23403959770008</v>
       </c>
-      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -9726,38 +9987,41 @@
       <c r="S92" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f8b</t>
-        </is>
-      </c>
-      <c r="U92" t="n">
+      <c r="T92" t="n">
+        <v>35.88947025932993</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2be</t>
+        </is>
+      </c>
+      <c r="V92" t="n">
         <v>30.67128068848474</v>
       </c>
-      <c r="V92" t="n">
+      <c r="W92" t="n">
         <v>650</v>
       </c>
-      <c r="W92" t="n">
+      <c r="X92" t="n">
         <v>32.69973564604175</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Y92" t="n">
         <v>200.0035059</v>
       </c>
-      <c r="Y92" t="n">
+      <c r="Z92" t="n">
         <v>193.0796304</v>
       </c>
-      <c r="Z92" t="n">
+      <c r="AA92" t="n">
         <v>226.4509824</v>
       </c>
-      <c r="AA92" t="inlineStr">
+      <c r="AB92" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB92" t="n">
+      <c r="AC92" t="n">
         <v>165.9027950019438</v>
       </c>
-      <c r="AC92" t="n">
+      <c r="AD92" t="n">
         <v>0.8373008646873157</v>
       </c>
     </row>
@@ -9829,38 +10093,41 @@
       <c r="S93" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f8d</t>
-        </is>
-      </c>
-      <c r="U93" t="n">
+      <c r="T93" t="n">
+        <v>26.84452061004327</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2c0</t>
+        </is>
+      </c>
+      <c r="V93" t="n">
         <v>31.20122325344679</v>
       </c>
-      <c r="V93" t="n">
+      <c r="W93" t="n">
         <v>650</v>
       </c>
-      <c r="W93" t="n">
+      <c r="X93" t="n">
         <v>33.29506172779579</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Y93" t="n">
         <v>219.6745821</v>
       </c>
-      <c r="Y93" t="n">
+      <c r="Z93" t="n">
         <v>214.404</v>
       </c>
-      <c r="Z93" t="n">
+      <c r="AA93" t="n">
         <v>225.7447104</v>
       </c>
-      <c r="AA93" t="inlineStr">
+      <c r="AB93" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB93" t="n">
+      <c r="AC93" t="n">
         <v>168.9231943706006</v>
       </c>
-      <c r="AC93" t="n">
+      <c r="AD93" t="n">
         <v>0.6789197951045104</v>
       </c>
     </row>
@@ -9932,38 +10199,41 @@
       <c r="S94" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f95</t>
-        </is>
-      </c>
-      <c r="U94" t="n">
+      <c r="T94" t="n">
+        <v>39.5193457598189</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2c8</t>
+        </is>
+      </c>
+      <c r="V94" t="n">
         <v>31.03798128868186</v>
       </c>
-      <c r="V94" t="n">
+      <c r="W94" t="n">
         <v>650</v>
       </c>
-      <c r="W94" t="n">
+      <c r="X94" t="n">
         <v>32.50383048039939</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Y94" t="n">
         <v>226.062612</v>
       </c>
-      <c r="Y94" t="n">
+      <c r="Z94" t="n">
         <v>195.057192</v>
       </c>
-      <c r="Z94" t="n">
+      <c r="AA94" t="n">
         <v>213.4656672</v>
       </c>
-      <c r="AA94" t="inlineStr">
+      <c r="AB94" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB94" t="n">
+      <c r="AC94" t="n">
         <v>164.9088660330005</v>
       </c>
-      <c r="AC94" t="n">
+      <c r="AD94" t="n">
         <v>0.9647348684739061</v>
       </c>
     </row>
@@ -10035,38 +10305,41 @@
       <c r="S95" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f95</t>
-        </is>
-      </c>
-      <c r="U95" t="n">
+      <c r="T95" t="n">
+        <v>39.5193457598189</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2c8</t>
+        </is>
+      </c>
+      <c r="V95" t="n">
         <v>31.03798128868186</v>
       </c>
-      <c r="V95" t="n">
+      <c r="W95" t="n">
         <v>650</v>
       </c>
-      <c r="W95" t="n">
+      <c r="X95" t="n">
         <v>32.50383048039939</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Y95" t="n">
         <v>246.8704053</v>
       </c>
-      <c r="Y95" t="n">
+      <c r="Z95" t="n">
         <v>211.0946112</v>
       </c>
-      <c r="Z95" t="n">
+      <c r="AA95" t="n">
         <v>220.0339968</v>
       </c>
-      <c r="AA95" t="inlineStr">
+      <c r="AB95" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB95" t="n">
+      <c r="AC95" t="n">
         <v>164.9088660330005</v>
       </c>
-      <c r="AC95" t="n">
+      <c r="AD95" t="n">
         <v>0.9647348684739061</v>
       </c>
     </row>
@@ -10138,38 +10411,41 @@
       <c r="S96" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fc2</t>
-        </is>
-      </c>
-      <c r="U96" t="n">
+      <c r="T96" t="n">
+        <v>33.97422550523956</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2f5</t>
+        </is>
+      </c>
+      <c r="V96" t="n">
         <v>30.82746318723289</v>
       </c>
-      <c r="V96" t="n">
+      <c r="W96" t="n">
         <v>650</v>
       </c>
-      <c r="W96" t="n">
+      <c r="X96" t="n">
         <v>32.24953325016637</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Y96" t="n">
         <v>172.0446765</v>
       </c>
-      <c r="Y96" t="n">
+      <c r="Z96" t="n">
         <v>204.0424953</v>
       </c>
-      <c r="Z96" t="n">
+      <c r="AA96" t="n">
         <v>212.3388432</v>
       </c>
-      <c r="AA96" t="inlineStr">
+      <c r="AB96" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB96" t="n">
+      <c r="AC96" t="n">
         <v>163.618683699003</v>
       </c>
-      <c r="AC96" t="n">
+      <c r="AD96" t="n">
         <v>0.5070727800145864</v>
       </c>
     </row>
@@ -10241,38 +10517,41 @@
       <c r="S97" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fbc</t>
-        </is>
-      </c>
-      <c r="U97" t="n">
+      <c r="T97" t="n">
+        <v>38.31015626559788</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2ef</t>
+        </is>
+      </c>
+      <c r="V97" t="n">
         <v>31.43238906973906</v>
       </c>
-      <c r="V97" t="n">
+      <c r="W97" t="n">
         <v>650</v>
       </c>
-      <c r="W97" t="n">
+      <c r="X97" t="n">
         <v>33.19033600120699</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Y97" t="n">
         <v>196.1592537</v>
       </c>
-      <c r="Y97" t="n">
+      <c r="Z97" t="n">
         <v>193.6608894</v>
       </c>
-      <c r="Z97" t="n">
+      <c r="AA97" t="n">
         <v>190.0315475</v>
       </c>
-      <c r="AA97" t="inlineStr">
+      <c r="AB97" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB97" t="n">
+      <c r="AC97" t="n">
         <v>168.3918661990901</v>
       </c>
-      <c r="AC97" t="n">
+      <c r="AD97" t="n">
         <v>0.8779639211359309</v>
       </c>
     </row>
@@ -10344,38 +10623,41 @@
       <c r="S98" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fc0</t>
-        </is>
-      </c>
-      <c r="U98" t="n">
+      <c r="T98" t="n">
+        <v>34.97814060596686</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2f3</t>
+        </is>
+      </c>
+      <c r="V98" t="n">
         <v>28.95420891043583</v>
       </c>
-      <c r="V98" t="n">
+      <c r="W98" t="n">
         <v>650</v>
       </c>
-      <c r="W98" t="n">
+      <c r="X98" t="n">
         <v>30.70416500133623</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Y98" t="n">
         <v>198.7140579</v>
       </c>
-      <c r="Y98" t="n">
+      <c r="Z98" t="n">
         <v>213.6545417</v>
       </c>
-      <c r="Z98" t="n">
+      <c r="AA98" t="n">
         <v>191.2082288</v>
       </c>
-      <c r="AA98" t="inlineStr">
+      <c r="AB98" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB98" t="n">
+      <c r="AC98" t="n">
         <v>155.7782254591147</v>
       </c>
-      <c r="AC98" t="n">
+      <c r="AD98" t="n">
         <v>0.9725635304842759</v>
       </c>
     </row>
@@ -10447,38 +10729,41 @@
       <c r="S99" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fbe</t>
-        </is>
-      </c>
-      <c r="U99" t="n">
+      <c r="T99" t="n">
+        <v>41.24282089962323</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2f1</t>
+        </is>
+      </c>
+      <c r="V99" t="n">
         <v>32.42998690417172</v>
       </c>
-      <c r="V99" t="n">
+      <c r="W99" t="n">
         <v>650</v>
       </c>
-      <c r="W99" t="n">
+      <c r="X99" t="n">
         <v>34.42751726106706</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Y99" t="n">
         <v>225.2100363</v>
       </c>
-      <c r="Y99" t="n">
+      <c r="Z99" t="n">
         <v>214.1411019</v>
       </c>
-      <c r="Z99" t="n">
+      <c r="AA99" t="n">
         <v>229.7159932</v>
       </c>
-      <c r="AA99" t="inlineStr">
+      <c r="AB99" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB99" t="n">
+      <c r="AC99" t="n">
         <v>174.6687312831556</v>
       </c>
-      <c r="AC99" t="n">
+      <c r="AD99" t="n">
         <v>0.9574301074178719</v>
       </c>
     </row>
@@ -10550,38 +10835,41 @@
       <c r="S100" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0c0</t>
-        </is>
-      </c>
-      <c r="U100" t="n">
+      <c r="T100" t="n">
+        <v>19.97091471602626</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3f3</t>
+        </is>
+      </c>
+      <c r="V100" t="n">
         <v>21.18274896942842</v>
       </c>
-      <c r="V100" t="n">
+      <c r="W100" t="n">
         <v>700</v>
       </c>
-      <c r="W100" t="n">
+      <c r="X100" t="n">
         <v>22.47277084777525</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Y100" t="n">
         <v>168.236982</v>
       </c>
-      <c r="Y100" t="n">
+      <c r="Z100" t="n">
         <v>157.426414</v>
       </c>
-      <c r="Z100" t="n">
+      <c r="AA100" t="n">
         <v>143.3857494</v>
       </c>
-      <c r="AA100" t="inlineStr">
+      <c r="AB100" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB100" t="n">
+      <c r="AC100" t="n">
         <v>105.8720691653587</v>
       </c>
-      <c r="AC100" t="n">
+      <c r="AD100" t="n">
         <v>0.8969195400135201</v>
       </c>
     </row>
@@ -10653,38 +10941,41 @@
       <c r="S101" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0c4</t>
-        </is>
-      </c>
-      <c r="U101" t="n">
+      <c r="T101" t="n">
+        <v>19.97091471602626</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3f7</t>
+        </is>
+      </c>
+      <c r="V101" t="n">
         <v>19.24639092669706</v>
       </c>
-      <c r="V101" t="n">
+      <c r="W101" t="n">
         <v>700</v>
       </c>
-      <c r="W101" t="n">
+      <c r="X101" t="n">
         <v>20.33514796235023</v>
       </c>
-      <c r="X101" t="n">
+      <c r="Y101" t="n">
         <v>124.96209</v>
       </c>
-      <c r="Y101" t="n">
+      <c r="Z101" t="n">
         <v>124.576628</v>
       </c>
-      <c r="Z101" t="n">
+      <c r="AA101" t="n">
         <v>136.2347754</v>
       </c>
-      <c r="AA101" t="inlineStr">
+      <c r="AB101" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB101" t="n">
+      <c r="AC101" t="n">
         <v>95.80145706735945</v>
       </c>
-      <c r="AC101" t="n">
+      <c r="AD101" t="n">
         <v>0.9497255642846731</v>
       </c>
     </row>
@@ -10756,38 +11047,41 @@
       <c r="S102" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0c6</t>
-        </is>
-      </c>
-      <c r="U102" t="n">
+      <c r="T102" t="n">
+        <v>27.86221701734028</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3f9</t>
+        </is>
+      </c>
+      <c r="V102" t="n">
         <v>28.29512337747494</v>
       </c>
-      <c r="V102" t="n">
+      <c r="W102" t="n">
         <v>700</v>
       </c>
-      <c r="W102" t="n">
+      <c r="X102" t="n">
         <v>30.12159256229596</v>
       </c>
-      <c r="X102" t="n">
+      <c r="Y102" t="n">
         <v>174.9522345</v>
       </c>
-      <c r="Y102" t="n">
+      <c r="Z102" t="n">
         <v>149.44967</v>
       </c>
-      <c r="Z102" t="n">
+      <c r="AA102" t="n">
         <v>129.5547192</v>
       </c>
-      <c r="AA102" t="inlineStr">
+      <c r="AB102" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB102" t="n">
+      <c r="AC102" t="n">
         <v>141.9066368240861</v>
       </c>
-      <c r="AC102" t="n">
+      <c r="AD102" t="n">
         <v>0.6890822725012009</v>
       </c>
     </row>
@@ -10859,38 +11153,41 @@
       <c r="S103" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0c2</t>
-        </is>
-      </c>
-      <c r="U103" t="n">
+      <c r="T103" t="n">
+        <v>19.91425244736224</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3f5</t>
+        </is>
+      </c>
+      <c r="V103" t="n">
         <v>14.52472606642554</v>
       </c>
-      <c r="V103" t="n">
+      <c r="W103" t="n">
         <v>700</v>
       </c>
-      <c r="W103" t="n">
+      <c r="X103" t="n">
         <v>15.35938791303568</v>
       </c>
-      <c r="X103" t="n">
+      <c r="Y103" t="n">
         <v>101.9815935</v>
       </c>
-      <c r="Y103" t="n">
+      <c r="Z103" t="n">
         <v>116.82273</v>
       </c>
-      <c r="Z103" t="n">
+      <c r="AA103" t="n">
         <v>90.50923839999999</v>
       </c>
-      <c r="AA103" t="inlineStr">
+      <c r="AB103" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB103" t="n">
+      <c r="AC103" t="n">
         <v>72.36002140018577</v>
       </c>
-      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -10960,38 +11257,41 @@
       <c r="S104" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fe1</t>
-        </is>
-      </c>
-      <c r="U104" t="n">
+      <c r="T104" t="n">
+        <v>33.90132379019588</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d314</t>
+        </is>
+      </c>
+      <c r="V104" t="n">
         <v>36.00133121454743</v>
       </c>
-      <c r="V104" t="n">
+      <c r="W104" t="n">
         <v>650</v>
       </c>
-      <c r="W104" t="n">
+      <c r="X104" t="n">
         <v>37.79926054079385</v>
       </c>
-      <c r="X104" t="n">
+      <c r="Y104" t="n">
         <v>190.1555026</v>
       </c>
-      <c r="Y104" t="n">
+      <c r="Z104" t="n">
         <v>209.989208</v>
       </c>
-      <c r="Z104" t="n">
+      <c r="AA104" t="n">
         <v>204.31464</v>
       </c>
-      <c r="AA104" t="inlineStr">
+      <c r="AB104" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB104" t="n">
+      <c r="AC104" t="n">
         <v>191.7753415686551</v>
       </c>
-      <c r="AC104" t="n">
+      <c r="AD104" t="n">
         <v>0.9669565747302903</v>
       </c>
     </row>
@@ -11063,38 +11363,41 @@
       <c r="S105" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fe3</t>
-        </is>
-      </c>
-      <c r="U105" t="n">
+      <c r="T105" t="n">
+        <v>32.44202185140193</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d316</t>
+        </is>
+      </c>
+      <c r="V105" t="n">
         <v>30.78152631601422</v>
       </c>
-      <c r="V105" t="n">
+      <c r="W105" t="n">
         <v>650</v>
       </c>
-      <c r="W105" t="n">
+      <c r="X105" t="n">
         <v>32.84905992026926</v>
       </c>
-      <c r="X105" t="n">
+      <c r="Y105" t="n">
         <v>232.1395678</v>
       </c>
-      <c r="Y105" t="n">
+      <c r="Z105" t="n">
         <v>211.9974208</v>
       </c>
-      <c r="Z105" t="n">
+      <c r="AA105" t="n">
         <v>212.60364</v>
       </c>
-      <c r="AA105" t="inlineStr">
+      <c r="AB105" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB105" t="n">
+      <c r="AC105" t="n">
         <v>166.6603948407969</v>
       </c>
-      <c r="AC105" t="n">
+      <c r="AD105" t="n">
         <v>0.7326766217741063</v>
       </c>
     </row>
@@ -11166,38 +11469,41 @@
       <c r="S106" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0e7</t>
-        </is>
-      </c>
-      <c r="U106" t="n">
+      <c r="T106" t="n">
+        <v>23.11421206491405</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d41a</t>
+        </is>
+      </c>
+      <c r="V106" t="n">
         <v>18.8742515094507</v>
       </c>
-      <c r="V106" t="n">
+      <c r="W106" t="n">
         <v>700</v>
       </c>
-      <c r="W106" t="n">
+      <c r="X106" t="n">
         <v>19.78908098266481</v>
       </c>
-      <c r="X106" t="n">
+      <c r="Y106" t="n">
         <v>106.731455</v>
       </c>
-      <c r="Y106" t="n">
+      <c r="Z106" t="n">
         <v>126.4913339</v>
       </c>
-      <c r="Z106" t="n">
+      <c r="AA106" t="n">
         <v>91.216542</v>
       </c>
-      <c r="AA106" t="inlineStr">
+      <c r="AB106" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB106" t="n">
+      <c r="AC106" t="n">
         <v>93.228866378219</v>
       </c>
-      <c r="AC106" t="n">
+      <c r="AD106" t="n">
         <v>0.8059451498950079</v>
       </c>
     </row>
@@ -11269,38 +11575,41 @@
       <c r="S107" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0e3</t>
-        </is>
-      </c>
-      <c r="U107" t="n">
+      <c r="T107" t="n">
+        <v>23.22906484464457</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d416</t>
+        </is>
+      </c>
+      <c r="V107" t="n">
         <v>28.04953265479184</v>
       </c>
-      <c r="V107" t="n">
+      <c r="W107" t="n">
         <v>700</v>
       </c>
-      <c r="W107" t="n">
+      <c r="X107" t="n">
         <v>29.93586524038823</v>
       </c>
-      <c r="X107" t="n">
+      <c r="Y107" t="n">
         <v>168.4305065</v>
       </c>
-      <c r="Y107" t="n">
+      <c r="Z107" t="n">
         <v>180.7115606</v>
       </c>
-      <c r="Z107" t="n">
+      <c r="AA107" t="n">
         <v>164.7808935</v>
       </c>
-      <c r="AA107" t="inlineStr">
+      <c r="AB107" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB107" t="n">
+      <c r="AC107" t="n">
         <v>141.0316518921387</v>
       </c>
-      <c r="AC107" t="n">
+      <c r="AD107" t="n">
         <v>0.7293635979998015</v>
       </c>
     </row>
@@ -11372,38 +11681,41 @@
       <c r="S108" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0eb</t>
-        </is>
-      </c>
-      <c r="U108" t="n">
+      <c r="T108" t="n">
+        <v>34.73241228322888</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d41e</t>
+        </is>
+      </c>
+      <c r="V108" t="n">
         <v>24.39720304665796</v>
       </c>
-      <c r="V108" t="n">
+      <c r="W108" t="n">
         <v>700</v>
       </c>
-      <c r="W108" t="n">
+      <c r="X108" t="n">
         <v>25.5491145106465</v>
       </c>
-      <c r="X108" t="n">
+      <c r="Y108" t="n">
         <v>142.7709875</v>
       </c>
-      <c r="Y108" t="n">
+      <c r="Z108" t="n">
         <v>158.4929261</v>
       </c>
-      <c r="Z108" t="n">
+      <c r="AA108" t="n">
         <v>157.8339024</v>
       </c>
-      <c r="AA108" t="inlineStr">
+      <c r="AB108" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB108" t="n">
+      <c r="AC108" t="n">
         <v>120.3651137150548</v>
       </c>
-      <c r="AC108" t="n">
+      <c r="AD108" t="n">
         <v>0.7671415334617067</v>
       </c>
     </row>
@@ -11475,38 +11787,41 @@
       <c r="S109" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0e5</t>
-        </is>
-      </c>
-      <c r="U109" t="n">
+      <c r="T109" t="n">
+        <v>15.40564873094073</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d418</t>
+        </is>
+      </c>
+      <c r="V109" t="n">
         <v>2.756198976735239</v>
       </c>
-      <c r="V109" t="n">
+      <c r="W109" t="n">
         <v>700</v>
       </c>
-      <c r="W109" t="n">
+      <c r="X109" t="n">
         <v>2.893592324685713</v>
       </c>
-      <c r="X109" t="n">
+      <c r="Y109" t="n">
         <v>53.664094</v>
       </c>
-      <c r="Y109" t="n">
+      <c r="Z109" t="n">
         <v>64.4988092</v>
       </c>
-      <c r="Z109" t="n">
+      <c r="AA109" t="n">
         <v>68.0002509</v>
       </c>
-      <c r="AA109" t="inlineStr">
+      <c r="AB109" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB109" t="n">
+      <c r="AC109" t="n">
         <v>13.63207985390929</v>
       </c>
-      <c r="AC109" t="n">
+      <c r="AD109" t="n">
         <v>0.6767702382023115</v>
       </c>
     </row>
@@ -11578,38 +11893,41 @@
       <c r="S110" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea029</t>
-        </is>
-      </c>
-      <c r="U110" t="n">
+      <c r="T110" t="n">
+        <v>19.47847117713586</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d35c</t>
+        </is>
+      </c>
+      <c r="V110" t="n">
         <v>25.27710124569929</v>
       </c>
-      <c r="V110" t="n">
+      <c r="W110" t="n">
         <v>650</v>
       </c>
-      <c r="W110" t="n">
+      <c r="X110" t="n">
         <v>26.65919426663017</v>
       </c>
-      <c r="X110" t="n">
+      <c r="Y110" t="n">
         <v>143.221483</v>
       </c>
-      <c r="Y110" t="n">
+      <c r="Z110" t="n">
         <v>148.8056624</v>
       </c>
-      <c r="Z110" t="n">
+      <c r="AA110" t="n">
         <v>143.2183496</v>
       </c>
-      <c r="AA110" t="inlineStr">
+      <c r="AB110" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB110" t="n">
+      <c r="AC110" t="n">
         <v>135.255981553145</v>
       </c>
-      <c r="AC110" t="n">
+      <c r="AD110" t="n">
         <v>0.9126972833230009</v>
       </c>
     </row>
@@ -11681,38 +11999,41 @@
       <c r="S111" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea02b</t>
-        </is>
-      </c>
-      <c r="U111" t="n">
+      <c r="T111" t="n">
+        <v>24.89781368524388</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d35e</t>
+        </is>
+      </c>
+      <c r="V111" t="n">
         <v>33.93345802718223</v>
       </c>
-      <c r="V111" t="n">
+      <c r="W111" t="n">
         <v>650</v>
       </c>
-      <c r="W111" t="n">
+      <c r="X111" t="n">
         <v>36.1858353563842</v>
       </c>
-      <c r="X111" t="n">
+      <c r="Y111" t="n">
         <v>206.6491235</v>
       </c>
-      <c r="Y111" t="n">
+      <c r="Z111" t="n">
         <v>228.0338328</v>
       </c>
-      <c r="Z111" t="n">
+      <c r="AA111" t="n">
         <v>164.0006028</v>
       </c>
-      <c r="AA111" t="inlineStr">
+      <c r="AB111" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB111" t="n">
+      <c r="AC111" t="n">
         <v>183.5895950379339</v>
       </c>
-      <c r="AC111" t="n">
+      <c r="AD111" t="n">
         <v>0.9525798151358653</v>
       </c>
     </row>
@@ -11784,38 +12105,41 @@
       <c r="S112" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fff</t>
-        </is>
-      </c>
-      <c r="U112" t="n">
+      <c r="T112" t="n">
+        <v>22.89797152446894</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d332</t>
+        </is>
+      </c>
+      <c r="V112" t="n">
         <v>30.06012200057793</v>
       </c>
-      <c r="V112" t="n">
+      <c r="W112" t="n">
         <v>650</v>
       </c>
-      <c r="W112" t="n">
+      <c r="X112" t="n">
         <v>31.48508151402518</v>
       </c>
-      <c r="X112" t="n">
+      <c r="Y112" t="n">
         <v>176.0459527</v>
       </c>
-      <c r="Y112" t="n">
+      <c r="Z112" t="n">
         <v>187.2755142</v>
       </c>
-      <c r="Z112" t="n">
+      <c r="AA112" t="n">
         <v>196.1638793</v>
       </c>
-      <c r="AA112" t="inlineStr">
+      <c r="AB112" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB112" t="n">
+      <c r="AC112" t="n">
         <v>159.7402217737225</v>
       </c>
-      <c r="AC112" t="n">
+      <c r="AD112" t="n">
         <v>0.7513587334080438</v>
       </c>
     </row>
@@ -11887,38 +12211,41 @@
       <c r="S113" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9ffd</t>
-        </is>
-      </c>
-      <c r="U113" t="n">
+      <c r="T113" t="n">
+        <v>23.38893665607673</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d330</t>
+        </is>
+      </c>
+      <c r="V113" t="n">
         <v>30.76993382729556</v>
       </c>
-      <c r="V113" t="n">
+      <c r="W113" t="n">
         <v>650</v>
       </c>
-      <c r="W113" t="n">
+      <c r="X113" t="n">
         <v>32.42200632811969</v>
       </c>
-      <c r="X113" t="n">
+      <c r="Y113" t="n">
         <v>178.7487063</v>
       </c>
-      <c r="Y113" t="n">
+      <c r="Z113" t="n">
         <v>218.6865729</v>
       </c>
-      <c r="Z113" t="n">
+      <c r="AA113" t="n">
         <v>188.804305</v>
       </c>
-      <c r="AA113" t="inlineStr">
+      <c r="AB113" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB113" t="n">
+      <c r="AC113" t="n">
         <v>164.4937294793351</v>
       </c>
-      <c r="AC113" t="n">
+      <c r="AD113" t="n">
         <v>0.9457961043863869</v>
       </c>
     </row>
@@ -11990,38 +12317,41 @@
       <c r="S114" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea001</t>
-        </is>
-      </c>
-      <c r="U114" t="n">
+      <c r="T114" t="n">
+        <v>30.92782665985537</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d334</t>
+        </is>
+      </c>
+      <c r="V114" t="n">
         <v>28.02396906225675</v>
       </c>
-      <c r="V114" t="n">
+      <c r="W114" t="n">
         <v>650</v>
       </c>
-      <c r="W114" t="n">
+      <c r="X114" t="n">
         <v>29.35090551531473</v>
       </c>
-      <c r="X114" t="n">
+      <c r="Y114" t="n">
         <v>148.4301018</v>
       </c>
-      <c r="Y114" t="n">
+      <c r="Z114" t="n">
         <v>228.0346512</v>
       </c>
-      <c r="Z114" t="n">
+      <c r="AA114" t="n">
         <v>190.1583266</v>
       </c>
-      <c r="AA114" t="inlineStr">
+      <c r="AB114" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB114" t="n">
+      <c r="AC114" t="n">
         <v>148.9124350587254</v>
       </c>
-      <c r="AC114" t="n">
+      <c r="AD114" t="n">
         <v>0.9699476295327571</v>
       </c>
     </row>
@@ -12093,38 +12423,41 @@
       <c r="S115" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea01a</t>
-        </is>
-      </c>
-      <c r="U115" t="n">
+      <c r="T115" t="n">
+        <v>16.12576284578486</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d34d</t>
+        </is>
+      </c>
+      <c r="V115" t="n">
         <v>29.23929648221075</v>
       </c>
-      <c r="V115" t="n">
+      <c r="W115" t="n">
         <v>650</v>
       </c>
-      <c r="W115" t="n">
+      <c r="X115" t="n">
         <v>31.10957845456883</v>
       </c>
-      <c r="X115" t="n">
+      <c r="Y115" t="n">
         <v>157.2778817</v>
       </c>
-      <c r="Y115" t="n">
+      <c r="Z115" t="n">
         <v>150.6221584</v>
       </c>
-      <c r="Z115" t="n">
+      <c r="AA115" t="n">
         <v>181.5914828</v>
       </c>
-      <c r="AA115" t="inlineStr">
+      <c r="AB115" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB115" t="n">
+      <c r="AC115" t="n">
         <v>157.8350991216643</v>
       </c>
-      <c r="AC115" t="n">
+      <c r="AD115" t="n">
         <v>0.969220422537264</v>
       </c>
     </row>
@@ -12196,38 +12529,41 @@
       <c r="S116" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea01a</t>
-        </is>
-      </c>
-      <c r="U116" t="n">
+      <c r="T116" t="n">
+        <v>30.27993528537605</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d34d</t>
+        </is>
+      </c>
+      <c r="V116" t="n">
         <v>29.23929648221075</v>
       </c>
-      <c r="V116" t="n">
+      <c r="W116" t="n">
         <v>650</v>
       </c>
-      <c r="W116" t="n">
+      <c r="X116" t="n">
         <v>31.10957845456883</v>
       </c>
-      <c r="X116" t="n">
+      <c r="Y116" t="n">
         <v>173.8480469</v>
       </c>
-      <c r="Y116" t="n">
+      <c r="Z116" t="n">
         <v>199.0799048</v>
       </c>
-      <c r="Z116" t="n">
+      <c r="AA116" t="n">
         <v>227.6830436</v>
       </c>
-      <c r="AA116" t="inlineStr">
+      <c r="AB116" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB116" t="n">
+      <c r="AC116" t="n">
         <v>157.8350991216643</v>
       </c>
-      <c r="AC116" t="n">
+      <c r="AD116" t="n">
         <v>0.969220422537264</v>
       </c>
     </row>
@@ -12299,38 +12635,41 @@
       <c r="S117" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9ff4</t>
-        </is>
-      </c>
-      <c r="U117" t="n">
+      <c r="T117" t="n">
+        <v>30.51249450229771</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d327</t>
+        </is>
+      </c>
+      <c r="V117" t="n">
         <v>36.55261870461946</v>
       </c>
-      <c r="V117" t="n">
+      <c r="W117" t="n">
         <v>650</v>
       </c>
-      <c r="W117" t="n">
+      <c r="X117" t="n">
         <v>38.53289537952889</v>
       </c>
-      <c r="X117" t="n">
+      <c r="Y117" t="n">
         <v>209.9122332</v>
       </c>
-      <c r="Y117" t="n">
+      <c r="Z117" t="n">
         <v>216.8138592</v>
       </c>
-      <c r="Z117" t="n">
+      <c r="AA117" t="n">
         <v>177.1797744</v>
       </c>
-      <c r="AA117" t="inlineStr">
+      <c r="AB117" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB117" t="n">
+      <c r="AC117" t="n">
         <v>195.4974533182551</v>
       </c>
-      <c r="AC117" t="n">
+      <c r="AD117" t="n">
         <v>0.9446703969804694</v>
       </c>
     </row>
@@ -12402,38 +12741,41 @@
       <c r="S118" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea03c</t>
-        </is>
-      </c>
-      <c r="U118" t="n">
+      <c r="T118" t="n">
+        <v>24.87962272883264</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d36f</t>
+        </is>
+      </c>
+      <c r="V118" t="n">
         <v>28.25267746259269</v>
       </c>
-      <c r="V118" t="n">
+      <c r="W118" t="n">
         <v>650</v>
       </c>
-      <c r="W118" t="n">
+      <c r="X118" t="n">
         <v>30.02183995254137</v>
       </c>
-      <c r="X118" t="n">
+      <c r="Y118" t="n">
         <v>211.3567476</v>
       </c>
-      <c r="Y118" t="n">
+      <c r="Z118" t="n">
         <v>193.4924778</v>
       </c>
-      <c r="Z118" t="n">
+      <c r="AA118" t="n">
         <v>188.040992</v>
       </c>
-      <c r="AA118" t="inlineStr">
+      <c r="AB118" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB118" t="n">
+      <c r="AC118" t="n">
         <v>152.3164350055088</v>
       </c>
-      <c r="AC118" t="n">
+      <c r="AD118" t="n">
         <v>0.9838681480465532</v>
       </c>
     </row>
@@ -12505,38 +12847,41 @@
       <c r="S119" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea083</t>
-        </is>
-      </c>
-      <c r="U119" t="n">
+      <c r="T119" t="n">
+        <v>39.07498992567358</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3b6</t>
+        </is>
+      </c>
+      <c r="V119" t="n">
         <v>34.02814308821208</v>
       </c>
-      <c r="V119" t="n">
+      <c r="W119" t="n">
         <v>650</v>
       </c>
-      <c r="W119" t="n">
+      <c r="X119" t="n">
         <v>35.72791017045907</v>
       </c>
-      <c r="X119" t="n">
+      <c r="Y119" t="n">
         <v>240.0307184</v>
       </c>
-      <c r="Y119" t="n">
+      <c r="Z119" t="n">
         <v>233.4622835</v>
       </c>
-      <c r="Z119" t="n">
+      <c r="AA119" t="n">
         <v>264.8457301</v>
       </c>
-      <c r="AA119" t="inlineStr">
+      <c r="AB119" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB119" t="n">
+      <c r="AC119" t="n">
         <v>181.2663019976136</v>
       </c>
-      <c r="AC119" t="n">
+      <c r="AD119" t="n">
         <v>0.8891602179434477</v>
       </c>
     </row>
@@ -12608,38 +12953,41 @@
       <c r="S120" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea081</t>
-        </is>
-      </c>
-      <c r="U120" t="n">
+      <c r="T120" t="n">
+        <v>26.18295626866995</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3b4</t>
+        </is>
+      </c>
+      <c r="V120" t="n">
         <v>27.58935275327094</v>
       </c>
-      <c r="V120" t="n">
+      <c r="W120" t="n">
         <v>650</v>
       </c>
-      <c r="W120" t="n">
+      <c r="X120" t="n">
         <v>28.94169780106563</v>
       </c>
-      <c r="X120" t="n">
+      <c r="Y120" t="n">
         <v>148.4303326</v>
       </c>
-      <c r="Y120" t="n">
+      <c r="Z120" t="n">
         <v>201.6913085</v>
       </c>
-      <c r="Z120" t="n">
+      <c r="AA120" t="n">
         <v>178.3945822</v>
       </c>
-      <c r="AA120" t="inlineStr">
+      <c r="AB120" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB120" t="n">
+      <c r="AC120" t="n">
         <v>146.8363111332863</v>
       </c>
-      <c r="AC120" t="n">
+      <c r="AD120" t="n">
         <v>0.9532258813657428</v>
       </c>
     </row>
@@ -12711,38 +13059,41 @@
       <c r="S121" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea085</t>
-        </is>
-      </c>
-      <c r="U121" t="n">
+      <c r="T121" t="n">
+        <v>28.71451428668433</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3b8</t>
+        </is>
+      </c>
+      <c r="V121" t="n">
         <v>30.90395386582069</v>
       </c>
-      <c r="V121" t="n">
+      <c r="W121" t="n">
         <v>650</v>
       </c>
-      <c r="W121" t="n">
+      <c r="X121" t="n">
         <v>32.33594531718474</v>
       </c>
-      <c r="X121" t="n">
+      <c r="Y121" t="n">
         <v>172.0451392</v>
       </c>
-      <c r="Y121" t="n">
+      <c r="Z121" t="n">
         <v>153.794417</v>
       </c>
-      <c r="Z121" t="n">
+      <c r="AA121" t="n">
         <v>169.5161616</v>
       </c>
-      <c r="AA121" t="inlineStr">
+      <c r="AB121" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB121" t="n">
+      <c r="AC121" t="n">
         <v>164.0570971343722</v>
       </c>
-      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -12812,38 +13163,41 @@
       <c r="S122" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea09e</t>
-        </is>
-      </c>
-      <c r="U122" t="n">
+      <c r="T122" t="n">
+        <v>46.17432598623448</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3d1</t>
+        </is>
+      </c>
+      <c r="V122" t="n">
         <v>36.47365228664646</v>
       </c>
-      <c r="V122" t="n">
+      <c r="W122" t="n">
         <v>650</v>
       </c>
-      <c r="W122" t="n">
+      <c r="X122" t="n">
         <v>38.14511459072778</v>
       </c>
-      <c r="X122" t="n">
+      <c r="Y122" t="n">
         <v>224.5681905</v>
       </c>
-      <c r="Y122" t="n">
+      <c r="Z122" t="n">
         <v>181.5946027</v>
       </c>
-      <c r="Z122" t="n">
+      <c r="AA122" t="n">
         <v>220.1453856</v>
       </c>
-      <c r="AA122" t="inlineStr">
+      <c r="AB122" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB122" t="n">
+      <c r="AC122" t="n">
         <v>193.5300393487189</v>
       </c>
-      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -12913,38 +13267,41 @@
       <c r="S123" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea09c</t>
-        </is>
-      </c>
-      <c r="U123" t="n">
+      <c r="T123" t="n">
+        <v>30.13450058817676</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3cf</t>
+        </is>
+      </c>
+      <c r="V123" t="n">
         <v>22.83265829128433</v>
       </c>
-      <c r="V123" t="n">
+      <c r="W123" t="n">
         <v>650</v>
       </c>
-      <c r="W123" t="n">
+      <c r="X123" t="n">
         <v>24.07545816828272</v>
       </c>
-      <c r="X123" t="n">
+      <c r="Y123" t="n">
         <v>131.026965</v>
       </c>
-      <c r="Y123" t="n">
+      <c r="Z123" t="n">
         <v>189.733096</v>
       </c>
-      <c r="Z123" t="n">
+      <c r="AA123" t="n">
         <v>139.9991256</v>
       </c>
-      <c r="AA123" t="inlineStr">
+      <c r="AB123" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB123" t="n">
+      <c r="AC123" t="n">
         <v>122.1473422386511</v>
       </c>
-      <c r="AC123" t="n">
+      <c r="AD123" t="n">
         <v>0.8500703152957096</v>
       </c>
     </row>
@@ -13016,38 +13373,41 @@
       <c r="S124" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea04d</t>
-        </is>
-      </c>
-      <c r="U124" t="n">
+      <c r="T124" t="n">
+        <v>34.92709314132629</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d380</t>
+        </is>
+      </c>
+      <c r="V124" t="n">
         <v>33.7767406365772</v>
       </c>
-      <c r="V124" t="n">
+      <c r="W124" t="n">
         <v>650</v>
       </c>
-      <c r="W124" t="n">
+      <c r="X124" t="n">
         <v>35.33965083552826</v>
       </c>
-      <c r="X124" t="n">
+      <c r="Y124" t="n">
         <v>212.6014068</v>
       </c>
-      <c r="Y124" t="n">
+      <c r="Z124" t="n">
         <v>215.4163896</v>
       </c>
-      <c r="Z124" t="n">
+      <c r="AA124" t="n">
         <v>229.9587306</v>
       </c>
-      <c r="AA124" t="inlineStr">
+      <c r="AB124" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB124" t="n">
+      <c r="AC124" t="n">
         <v>179.2964601142461</v>
       </c>
-      <c r="AC124" t="n">
+      <c r="AD124" t="n">
         <v>0.8663864460795556</v>
       </c>
     </row>
@@ -13119,38 +13479,41 @@
       <c r="S125" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea049</t>
-        </is>
-      </c>
-      <c r="U125" t="n">
+      <c r="T125" t="n">
+        <v>51.15809073133753</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d37c</t>
+        </is>
+      </c>
+      <c r="V125" t="n">
         <v>39.43814501353985</v>
       </c>
-      <c r="V125" t="n">
+      <c r="W125" t="n">
         <v>650</v>
       </c>
-      <c r="W125" t="n">
+      <c r="X125" t="n">
         <v>41.37254738455533</v>
       </c>
-      <c r="X125" t="n">
+      <c r="Y125" t="n">
         <v>258.1479508</v>
       </c>
-      <c r="Y125" t="n">
+      <c r="Z125" t="n">
         <v>261.3952026</v>
       </c>
-      <c r="Z125" t="n">
+      <c r="AA125" t="n">
         <v>250.3466028</v>
       </c>
-      <c r="AA125" t="inlineStr">
+      <c r="AB125" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB125" t="n">
+      <c r="AC125" t="n">
         <v>209.9044873556628</v>
       </c>
-      <c r="AC125" t="n">
+      <c r="AD125" t="n">
         <v>0.8319756932482765</v>
       </c>
     </row>
@@ -13222,38 +13585,41 @@
       <c r="S126" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea04b</t>
-        </is>
-      </c>
-      <c r="U126" t="n">
+      <c r="T126" t="n">
+        <v>28.33025299191442</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d37e</t>
+        </is>
+      </c>
+      <c r="V126" t="n">
         <v>29.59931537645023</v>
       </c>
-      <c r="V126" t="n">
+      <c r="W126" t="n">
         <v>650</v>
       </c>
-      <c r="W126" t="n">
+      <c r="X126" t="n">
         <v>30.96576907477481</v>
       </c>
-      <c r="X126" t="n">
+      <c r="Y126" t="n">
         <v>196.654247</v>
       </c>
-      <c r="Y126" t="n">
+      <c r="Z126" t="n">
         <v>194.3303751</v>
       </c>
-      <c r="Z126" t="n">
+      <c r="AA126" t="n">
         <v>185.083932</v>
       </c>
-      <c r="AA126" t="inlineStr">
+      <c r="AB126" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB126" t="n">
+      <c r="AC126" t="n">
         <v>157.1054792154492</v>
       </c>
-      <c r="AC126" t="n">
+      <c r="AD126" t="n">
         <v>0.9252805704727876</v>
       </c>
     </row>
@@ -13325,38 +13691,41 @@
       <c r="S127" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea04f</t>
-        </is>
-      </c>
-      <c r="U127" t="n">
+      <c r="T127" t="n">
+        <v>26.64259651804839</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d382</t>
+        </is>
+      </c>
+      <c r="V127" t="n">
         <v>33.65493498468531</v>
       </c>
-      <c r="V127" t="n">
+      <c r="W127" t="n">
         <v>650</v>
       </c>
-      <c r="W127" t="n">
+      <c r="X127" t="n">
         <v>35.20049656528234</v>
       </c>
-      <c r="X127" t="n">
+      <c r="Y127" t="n">
         <v>172.7423114</v>
       </c>
-      <c r="Y127" t="n">
+      <c r="Z127" t="n">
         <v>186.3837135</v>
       </c>
-      <c r="Z127" t="n">
+      <c r="AA127" t="n">
         <v>176.044533</v>
       </c>
-      <c r="AA127" t="inlineStr">
+      <c r="AB127" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB127" t="n">
+      <c r="AC127" t="n">
         <v>178.5904580040104</v>
       </c>
-      <c r="AC127" t="n">
+      <c r="AD127" t="n">
         <v>0.7398062511014591</v>
       </c>
     </row>
@@ -13428,38 +13797,41 @@
       <c r="S128" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea072</t>
-        </is>
-      </c>
-      <c r="U128" t="n">
+      <c r="T128" t="n">
+        <v>31.09699505195388</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3a5</t>
+        </is>
+      </c>
+      <c r="V128" t="n">
         <v>31.27557840245549</v>
       </c>
-      <c r="V128" t="n">
+      <c r="W128" t="n">
         <v>650</v>
       </c>
-      <c r="W128" t="n">
+      <c r="X128" t="n">
         <v>32.74897516307074</v>
       </c>
-      <c r="X128" t="n">
+      <c r="Y128" t="n">
         <v>196.121622</v>
       </c>
-      <c r="Y128" t="n">
+      <c r="Z128" t="n">
         <v>145.9845113</v>
       </c>
-      <c r="Z128" t="n">
+      <c r="AA128" t="n">
         <v>188.3005732</v>
       </c>
-      <c r="AA128" t="inlineStr">
+      <c r="AB128" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB128" t="n">
+      <c r="AC128" t="n">
         <v>166.1526127248783</v>
       </c>
-      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -13529,38 +13901,41 @@
       <c r="S129" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea070</t>
-        </is>
-      </c>
-      <c r="U129" t="n">
+      <c r="T129" t="n">
+        <v>35.34376935100185</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3a3</t>
+        </is>
+      </c>
+      <c r="V129" t="n">
         <v>26.50248278265459</v>
       </c>
-      <c r="V129" t="n">
+      <c r="W129" t="n">
         <v>650</v>
       </c>
-      <c r="W129" t="n">
+      <c r="X129" t="n">
         <v>28.08298514634632</v>
       </c>
-      <c r="X129" t="n">
+      <c r="Y129" t="n">
         <v>174.402708</v>
       </c>
-      <c r="Y129" t="n">
+      <c r="Z129" t="n">
         <v>193.0410159</v>
       </c>
-      <c r="Z129" t="n">
+      <c r="AA129" t="n">
         <v>196.3649174</v>
       </c>
-      <c r="AA129" t="inlineStr">
+      <c r="AB129" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB129" t="n">
+      <c r="AC129" t="n">
         <v>142.4796144595406</v>
       </c>
-      <c r="AC129" t="n">
+      <c r="AD129" t="n">
         <v>0.9660535759318325</v>
       </c>
     </row>
@@ -13632,38 +14007,41 @@
       <c r="S130" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0b7</t>
-        </is>
-      </c>
-      <c r="U130" t="n">
+      <c r="T130" t="n">
+        <v>45.00687482799127</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3ea</t>
+        </is>
+      </c>
+      <c r="V130" t="n">
         <v>43.57818014760628</v>
       </c>
-      <c r="V130" t="n">
+      <c r="W130" t="n">
         <v>650</v>
       </c>
-      <c r="W130" t="n">
+      <c r="X130" t="n">
         <v>45.79704356692451</v>
       </c>
-      <c r="X130" t="n">
+      <c r="Y130" t="n">
         <v>230.756371</v>
       </c>
-      <c r="Y130" t="n">
+      <c r="Z130" t="n">
         <v>219.6716358</v>
       </c>
-      <c r="Z130" t="n">
+      <c r="AA130" t="n">
         <v>241.34472</v>
       </c>
-      <c r="AA130" t="inlineStr">
+      <c r="AB130" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB130" t="n">
+      <c r="AC130" t="n">
         <v>232.3522615846674</v>
       </c>
-      <c r="AC130" t="n">
+      <c r="AD130" t="n">
         <v>0.9477576795858187</v>
       </c>
     </row>
@@ -13735,38 +14113,41 @@
       <c r="S131" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea11d</t>
-        </is>
-      </c>
-      <c r="U131" t="n">
+      <c r="T131" t="n">
+        <v>36.8763672487479</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d450</t>
+        </is>
+      </c>
+      <c r="V131" t="n">
         <v>23.90918049639193</v>
       </c>
-      <c r="V131" t="n">
+      <c r="W131" t="n">
         <v>760</v>
       </c>
-      <c r="W131" t="n">
+      <c r="X131" t="n">
         <v>25.36034771760088</v>
       </c>
-      <c r="X131" t="n">
+      <c r="Y131" t="n">
         <v>157.066</v>
       </c>
-      <c r="Y131" t="n">
+      <c r="Z131" t="n">
         <v>142.2408</v>
       </c>
-      <c r="Z131" t="n">
+      <c r="AA131" t="n">
         <v>139.9440672</v>
       </c>
-      <c r="AA131" t="inlineStr">
+      <c r="AB131" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB131" t="n">
+      <c r="AC131" t="n">
         <v>110.0435087036636</v>
       </c>
-      <c r="AC131" t="n">
+      <c r="AD131" t="n">
         <v>0.9215651814782921</v>
       </c>
     </row>
@@ -13838,38 +14219,41 @@
       <c r="S132" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea11f</t>
-        </is>
-      </c>
-      <c r="U132" t="n">
+      <c r="T132" t="n">
+        <v>18.40600607334448</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d452</t>
+        </is>
+      </c>
+      <c r="V132" t="n">
         <v>21.42705264198886</v>
       </c>
-      <c r="V132" t="n">
+      <c r="W132" t="n">
         <v>760</v>
       </c>
-      <c r="W132" t="n">
+      <c r="X132" t="n">
         <v>22.83252117200171</v>
       </c>
-      <c r="X132" t="n">
+      <c r="Y132" t="n">
         <v>93.38159999999999</v>
       </c>
-      <c r="Y132" t="n">
+      <c r="Z132" t="n">
         <v>126.568</v>
       </c>
-      <c r="Z132" t="n">
+      <c r="AA132" t="n">
         <v>100.078902</v>
       </c>
-      <c r="AA132" t="inlineStr">
+      <c r="AB132" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB132" t="n">
+      <c r="AC132" t="n">
         <v>99.07477493196795</v>
       </c>
-      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -13939,38 +14323,41 @@
       <c r="S133" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea119</t>
-        </is>
-      </c>
-      <c r="U133" t="n">
+      <c r="T133" t="n">
+        <v>20.9999627898615</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d44c</t>
+        </is>
+      </c>
+      <c r="V133" t="n">
         <v>21.5428152062824</v>
       </c>
-      <c r="V133" t="n">
+      <c r="W133" t="n">
         <v>760</v>
       </c>
-      <c r="W133" t="n">
+      <c r="X133" t="n">
         <v>22.76857451628019</v>
       </c>
-      <c r="X133" t="n">
+      <c r="Y133" t="n">
         <v>99.03400000000002</v>
       </c>
-      <c r="Y133" t="n">
+      <c r="Z133" t="n">
         <v>114.6288</v>
       </c>
-      <c r="Z133" t="n">
+      <c r="AA133" t="n">
         <v>99.03758760000001</v>
       </c>
-      <c r="AA133" t="inlineStr">
+      <c r="AB133" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB133" t="n">
+      <c r="AC133" t="n">
         <v>98.79729788615532</v>
       </c>
-      <c r="AC133" t="n">
+      <c r="AD133" t="n">
         <v>0.9863518547892403</v>
       </c>
     </row>
@@ -14042,38 +14429,41 @@
       <c r="S134" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea11b</t>
-        </is>
-      </c>
-      <c r="U134" t="n">
+      <c r="T134" t="n">
+        <v>20.86159308341219</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d44e</t>
+        </is>
+      </c>
+      <c r="V134" t="n">
         <v>20.05796905035209</v>
       </c>
-      <c r="V134" t="n">
+      <c r="W134" t="n">
         <v>760</v>
       </c>
-      <c r="W134" t="n">
+      <c r="X134" t="n">
         <v>21.24085529754919</v>
       </c>
-      <c r="X134" t="n">
+      <c r="Y134" t="n">
         <v>104.9932</v>
       </c>
-      <c r="Y134" t="n">
+      <c r="Z134" t="n">
         <v>123.6924</v>
       </c>
-      <c r="Z134" t="n">
+      <c r="AA134" t="n">
         <v>116.2729512</v>
       </c>
-      <c r="AA134" t="inlineStr">
+      <c r="AB134" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB134" t="n">
+      <c r="AC134" t="n">
         <v>92.16822540595024</v>
       </c>
-      <c r="AC134" t="n">
+      <c r="AD134" t="n">
         <v>0.9473491615640999</v>
       </c>
     </row>
@@ -14145,38 +14535,41 @@
       <c r="S135" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea10c</t>
-        </is>
-      </c>
-      <c r="U135" t="n">
+      <c r="T135" t="n">
+        <v>34.3443609943217</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d43f</t>
+        </is>
+      </c>
+      <c r="V135" t="n">
         <v>34.51446176618487</v>
       </c>
-      <c r="V135" t="n">
+      <c r="W135" t="n">
         <v>760</v>
       </c>
-      <c r="W135" t="n">
+      <c r="X135" t="n">
         <v>36.26653580881793</v>
       </c>
-      <c r="X135" t="n">
+      <c r="Y135" t="n">
         <v>155.3339284</v>
       </c>
-      <c r="Y135" t="n">
+      <c r="Z135" t="n">
         <v>190.5917126</v>
       </c>
-      <c r="Z135" t="n">
+      <c r="AA135" t="n">
         <v>184.1717185</v>
       </c>
-      <c r="AA135" t="inlineStr">
+      <c r="AB135" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB135" t="n">
+      <c r="AC135" t="n">
         <v>157.3675918552007</v>
       </c>
-      <c r="AC135" t="n">
+      <c r="AD135" t="n">
         <v>0.9353287701298009</v>
       </c>
     </row>
@@ -14248,38 +14641,41 @@
       <c r="S136" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea142</t>
-        </is>
-      </c>
-      <c r="U136" t="n">
+      <c r="T136" t="n">
+        <v>12.12637450050619</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d475</t>
+        </is>
+      </c>
+      <c r="V136" t="n">
         <v>17.82214718937066</v>
       </c>
-      <c r="V136" t="n">
+      <c r="W136" t="n">
         <v>760</v>
       </c>
-      <c r="W136" t="n">
+      <c r="X136" t="n">
         <v>18.78341469261274</v>
       </c>
-      <c r="X136" t="n">
+      <c r="Y136" t="n">
         <v>82.0718925</v>
       </c>
-      <c r="Y136" t="n">
+      <c r="Z136" t="n">
         <v>129.4181549</v>
       </c>
-      <c r="Z136" t="n">
+      <c r="AA136" t="n">
         <v>107.6296065</v>
       </c>
-      <c r="AA136" t="inlineStr">
+      <c r="AB136" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB136" t="n">
+      <c r="AC136" t="n">
         <v>81.50490999681742</v>
       </c>
-      <c r="AC136" t="n">
+      <c r="AD136" t="n">
         <v>0.8594875576134621</v>
       </c>
     </row>
@@ -14351,38 +14747,41 @@
       <c r="S137" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea140</t>
-        </is>
-      </c>
-      <c r="U137" t="n">
+      <c r="T137" t="n">
+        <v>30.85209027153977</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d473</t>
+        </is>
+      </c>
+      <c r="V137" t="n">
         <v>29.78057741862015</v>
       </c>
-      <c r="V137" t="n">
+      <c r="W137" t="n">
         <v>760</v>
       </c>
-      <c r="W137" t="n">
+      <c r="X137" t="n">
         <v>31.39703645419367</v>
       </c>
-      <c r="X137" t="n">
+      <c r="Y137" t="n">
         <v>133.2087575</v>
       </c>
-      <c r="Y137" t="n">
+      <c r="Z137" t="n">
         <v>169.7023996</v>
       </c>
-      <c r="Z137" t="n">
+      <c r="AA137" t="n">
         <v>144.49878</v>
       </c>
-      <c r="AA137" t="inlineStr">
+      <c r="AB137" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB137" t="n">
+      <c r="AC137" t="n">
         <v>136.2378817826066</v>
       </c>
-      <c r="AC137" t="n">
+      <c r="AD137" t="n">
         <v>0.8748182078014123</v>
       </c>
     </row>
@@ -14454,38 +14853,41 @@
       <c r="S138" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea157</t>
-        </is>
-      </c>
-      <c r="U138" t="n">
+      <c r="T138" t="n">
+        <v>27.34268954438119</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d48a</t>
+        </is>
+      </c>
+      <c r="V138" t="n">
         <v>28.35187641740393</v>
       </c>
-      <c r="V138" t="n">
+      <c r="W138" t="n">
         <v>415</v>
       </c>
-      <c r="W138" t="n">
+      <c r="X138" t="n">
         <v>28.88577660030482</v>
       </c>
-      <c r="X138" t="n">
+      <c r="Y138" t="n">
         <v>294.1815303</v>
       </c>
-      <c r="Y138" t="n">
+      <c r="Z138" t="n">
         <v>296.9876682</v>
       </c>
-      <c r="Z138" t="n">
+      <c r="AA138" t="n">
         <v>296.9875773</v>
       </c>
-      <c r="AA138" t="inlineStr">
+      <c r="AB138" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB138" t="n">
+      <c r="AC138" t="n">
         <v>240.0268155197871</v>
       </c>
-      <c r="AC138" t="n">
+      <c r="AD138" t="n">
         <v>0.9833973078174223</v>
       </c>
     </row>
@@ -14557,38 +14959,41 @@
       <c r="S139" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea153</t>
-        </is>
-      </c>
-      <c r="U139" t="n">
+      <c r="T139" t="n">
+        <v>24.54192453592183</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d486</t>
+        </is>
+      </c>
+      <c r="V139" t="n">
         <v>26.23537504940931</v>
       </c>
-      <c r="V139" t="n">
+      <c r="W139" t="n">
         <v>415</v>
       </c>
-      <c r="W139" t="n">
+      <c r="X139" t="n">
         <v>26.42481755062565</v>
       </c>
-      <c r="X139" t="n">
+      <c r="Y139" t="n">
         <v>322.0176414</v>
       </c>
-      <c r="Y139" t="n">
+      <c r="Z139" t="n">
         <v>267.9285294</v>
       </c>
-      <c r="Z139" t="n">
+      <c r="AA139" t="n">
         <v>337.7628072</v>
       </c>
-      <c r="AA139" t="inlineStr">
+      <c r="AB139" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB139" t="n">
+      <c r="AC139" t="n">
         <v>219.5774375441623</v>
       </c>
-      <c r="AC139" t="n">
+      <c r="AD139" t="n">
         <v>0.9907757449843471</v>
       </c>
     </row>
@@ -14670,6 +15075,7 @@
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="inlineStr"/>
       <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -14739,38 +15145,41 @@
       <c r="S141" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea16a</t>
-        </is>
-      </c>
-      <c r="U141" t="n">
+      <c r="T141" t="n">
+        <v>24.76103094556028</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d49d</t>
+        </is>
+      </c>
+      <c r="V141" t="n">
         <v>26.1066921487481</v>
       </c>
-      <c r="V141" t="n">
+      <c r="W141" t="n">
         <v>415</v>
       </c>
-      <c r="W141" t="n">
+      <c r="X141" t="n">
         <v>26.63733511906634</v>
       </c>
-      <c r="X141" t="n">
+      <c r="Y141" t="n">
         <v>30.762</v>
       </c>
-      <c r="Y141" t="n">
+      <c r="Z141" t="n">
         <v>332.2159092</v>
       </c>
-      <c r="Z141" t="n">
+      <c r="AA141" t="n">
         <v>270.0644546</v>
       </c>
-      <c r="AA141" t="inlineStr">
+      <c r="AB141" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB141" t="n">
+      <c r="AC141" t="n">
         <v>221.3433556255993</v>
       </c>
-      <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -14840,38 +15249,41 @@
       <c r="S142" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea17d</t>
-        </is>
-      </c>
-      <c r="U142" t="n">
+      <c r="T142" t="n">
+        <v>21.75614063400926</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4b0</t>
+        </is>
+      </c>
+      <c r="V142" t="n">
         <v>25.06729003009563</v>
       </c>
-      <c r="V142" t="n">
+      <c r="W142" t="n">
         <v>415</v>
       </c>
-      <c r="W142" t="n">
+      <c r="X142" t="n">
         <v>25.22527182170814</v>
       </c>
-      <c r="X142" t="n">
+      <c r="Y142" t="n">
         <v>245.1782208</v>
       </c>
-      <c r="Y142" t="n">
+      <c r="Z142" t="n">
         <v>306.1519483999999</v>
       </c>
-      <c r="Z142" t="n">
+      <c r="AA142" t="n">
         <v>288.128673</v>
       </c>
-      <c r="AA142" t="inlineStr">
+      <c r="AB142" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB142" t="n">
+      <c r="AC142" t="n">
         <v>209.6097934206738</v>
       </c>
-      <c r="AC142" t="n">
+      <c r="AD142" t="n">
         <v>0.9856888588001179</v>
       </c>
     </row>
@@ -14953,6 +15365,7 @@
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="inlineStr"/>
       <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -15022,38 +15435,41 @@
       <c r="S144" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1ab</t>
-        </is>
-      </c>
-      <c r="U144" t="n">
+      <c r="T144" t="n">
+        <v>29.98540530915148</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4de</t>
+        </is>
+      </c>
+      <c r="V144" t="n">
         <v>17.7911812911664</v>
       </c>
-      <c r="V144" t="n">
+      <c r="W144" t="n">
         <v>415</v>
       </c>
-      <c r="W144" t="n">
+      <c r="X144" t="n">
         <v>18.14622085111023</v>
       </c>
-      <c r="X144" t="n">
+      <c r="Y144" t="n">
         <v>240.0003692</v>
       </c>
-      <c r="Y144" t="n">
+      <c r="Z144" t="n">
         <v>259.9954544</v>
       </c>
-      <c r="Z144" t="n">
+      <c r="AA144" t="n">
         <v>215.0771974</v>
       </c>
-      <c r="AA144" t="inlineStr">
+      <c r="AB144" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB144" t="n">
+      <c r="AC144" t="n">
         <v>150.7863079078437</v>
       </c>
-      <c r="AC144" t="n">
+      <c r="AD144" t="n">
         <v>0.9330575156040435</v>
       </c>
     </row>
@@ -15135,6 +15551,7 @@
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr"/>
       <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -15214,6 +15631,7 @@
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="inlineStr"/>
       <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -15283,38 +15701,41 @@
       <c r="S147" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea186</t>
-        </is>
-      </c>
-      <c r="U147" t="n">
+      <c r="T147" t="n">
+        <v>26.39688959671947</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4b9</t>
+        </is>
+      </c>
+      <c r="V147" t="n">
         <v>22.07199194778374</v>
       </c>
-      <c r="V147" t="n">
+      <c r="W147" t="n">
         <v>415</v>
       </c>
-      <c r="W147" t="n">
+      <c r="X147" t="n">
         <v>22.23286535323977</v>
       </c>
-      <c r="X147" t="n">
+      <c r="Y147" t="n">
         <v>237.622665</v>
       </c>
-      <c r="Y147" t="n">
+      <c r="Z147" t="n">
         <v>237.743748</v>
       </c>
-      <c r="Z147" t="n">
+      <c r="AA147" t="n">
         <v>225.223446</v>
       </c>
-      <c r="AA147" t="inlineStr">
+      <c r="AB147" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB147" t="n">
+      <c r="AC147" t="n">
         <v>184.7443447500053</v>
       </c>
-      <c r="AC147" t="n">
+      <c r="AD147" t="n">
         <v>0.9911087335870564</v>
       </c>
     </row>
@@ -15386,38 +15807,41 @@
       <c r="S148" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea188</t>
-        </is>
-      </c>
-      <c r="U148" t="n">
+      <c r="T148" t="n">
+        <v>15.32062382856391</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4bb</t>
+        </is>
+      </c>
+      <c r="V148" t="n">
         <v>15.17330055264671</v>
       </c>
-      <c r="V148" t="n">
+      <c r="W148" t="n">
         <v>415</v>
       </c>
-      <c r="W148" t="n">
+      <c r="X148" t="n">
         <v>15.34258262381278</v>
       </c>
-      <c r="X148" t="n">
+      <c r="Y148" t="n">
         <v>268.8092505</v>
       </c>
-      <c r="Y148" t="n">
+      <c r="Z148" t="n">
         <v>279.8859096</v>
       </c>
-      <c r="Z148" t="n">
+      <c r="AA148" t="n">
         <v>296.4422940000001</v>
       </c>
-      <c r="AA148" t="inlineStr">
+      <c r="AB148" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB148" t="n">
+      <c r="AC148" t="n">
         <v>127.4894319096874</v>
       </c>
-      <c r="AC148" t="n">
+      <c r="AD148" t="n">
         <v>0.9919337984308336</v>
       </c>
     </row>
@@ -15499,6 +15923,7 @@
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="inlineStr"/>
       <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -15568,38 +15993,41 @@
       <c r="S150" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea197</t>
-        </is>
-      </c>
-      <c r="U150" t="n">
+      <c r="T150" t="n">
+        <v>21.13166700444395</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4ca</t>
+        </is>
+      </c>
+      <c r="V150" t="n">
         <v>25.20374870651977</v>
       </c>
-      <c r="V150" t="n">
+      <c r="W150" t="n">
         <v>415</v>
       </c>
-      <c r="W150" t="n">
+      <c r="X150" t="n">
         <v>25.20945894183832</v>
       </c>
-      <c r="X150" t="n">
+      <c r="Y150" t="n">
         <v>261.9645777</v>
       </c>
-      <c r="Y150" t="n">
+      <c r="Z150" t="n">
         <v>290.237934</v>
       </c>
-      <c r="Z150" t="n">
+      <c r="AA150" t="n">
         <v>288.562176</v>
       </c>
-      <c r="AA150" t="inlineStr">
+      <c r="AB150" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB150" t="n">
+      <c r="AC150" t="n">
         <v>209.4783960463926</v>
       </c>
-      <c r="AC150" t="n">
+      <c r="AD150" t="n">
         <v>0.7706545249816008</v>
       </c>
     </row>
@@ -15671,38 +16099,41 @@
       <c r="S151" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1a2</t>
-        </is>
-      </c>
-      <c r="U151" t="n">
+      <c r="T151" t="n">
+        <v>25.69802795386045</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4d5</t>
+        </is>
+      </c>
+      <c r="V151" t="n">
         <v>25.78593396164096</v>
       </c>
-      <c r="V151" t="n">
+      <c r="W151" t="n">
         <v>415</v>
       </c>
-      <c r="W151" t="n">
+      <c r="X151" t="n">
         <v>26.31400534123903</v>
       </c>
-      <c r="X151" t="n">
+      <c r="Y151" t="n">
         <v>276.5841824</v>
       </c>
-      <c r="Y151" t="n">
+      <c r="Z151" t="n">
         <v>277.9500447</v>
       </c>
-      <c r="Z151" t="n">
+      <c r="AA151" t="n">
         <v>276.489294</v>
       </c>
-      <c r="AA151" t="inlineStr">
+      <c r="AB151" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB151" t="n">
+      <c r="AC151" t="n">
         <v>218.6566417453226</v>
       </c>
-      <c r="AC151" t="n">
+      <c r="AD151" t="n">
         <v>0.75307680584626</v>
       </c>
     </row>
@@ -15784,6 +16215,7 @@
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr"/>
       <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -15863,6 +16295,7 @@
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="inlineStr"/>
       <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -15942,6 +16375,7 @@
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="inlineStr"/>
       <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -16021,6 +16455,7 @@
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="inlineStr"/>
       <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -16090,38 +16525,41 @@
       <c r="S156" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1b4</t>
-        </is>
-      </c>
-      <c r="U156" t="n">
+      <c r="T156" t="n">
+        <v>29.1959036730641</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4e7</t>
+        </is>
+      </c>
+      <c r="V156" t="n">
         <v>25.14110091453718</v>
       </c>
-      <c r="V156" t="n">
+      <c r="W156" t="n">
         <v>400</v>
       </c>
-      <c r="W156" t="n">
+      <c r="X156" t="n">
         <v>25.51644585360476</v>
       </c>
-      <c r="X156" t="n">
+      <c r="Y156" t="n">
         <v>292.2475556</v>
       </c>
-      <c r="Y156" t="n">
+      <c r="Z156" t="n">
         <v>292.9535976</v>
       </c>
-      <c r="Z156" t="n">
+      <c r="AA156" t="n">
         <v>297.890068</v>
       </c>
-      <c r="AA156" t="inlineStr">
+      <c r="AB156" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB156" t="n">
+      <c r="AC156" t="n">
         <v>219.9804076971802</v>
       </c>
-      <c r="AC156" t="n">
+      <c r="AD156" t="n">
         <v>0.9930245413233378</v>
       </c>
     </row>
@@ -16193,38 +16631,41 @@
       <c r="S157" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea264</t>
-        </is>
-      </c>
-      <c r="U157" t="n">
+      <c r="T157" t="n">
+        <v>36.084082715336</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d597</t>
+        </is>
+      </c>
+      <c r="V157" t="n">
         <v>27.2070784594051</v>
       </c>
-      <c r="V157" t="n">
+      <c r="W157" t="n">
         <v>400</v>
       </c>
-      <c r="W157" t="n">
+      <c r="X157" t="n">
         <v>27.31676919520205</v>
       </c>
-      <c r="X157" t="n">
+      <c r="Y157" t="n">
         <v>355.4606972</v>
       </c>
-      <c r="Y157" t="n">
+      <c r="Z157" t="n">
         <v>356.7825548</v>
       </c>
-      <c r="Z157" t="n">
+      <c r="AA157" t="n">
         <v>394.6883814</v>
       </c>
-      <c r="AA157" t="inlineStr">
+      <c r="AB157" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB157" t="n">
+      <c r="AC157" t="n">
         <v>235.501215921942</v>
       </c>
-      <c r="AC157" t="n">
+      <c r="AD157" t="n">
         <v>0.8900975838396811</v>
       </c>
     </row>
@@ -16296,38 +16737,41 @@
       <c r="S158" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1bd</t>
-        </is>
-      </c>
-      <c r="U158" t="n">
+      <c r="T158" t="n">
+        <v>30.34679370409703</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4f0</t>
+        </is>
+      </c>
+      <c r="V158" t="n">
         <v>24.64922597509153</v>
       </c>
-      <c r="V158" t="n">
+      <c r="W158" t="n">
         <v>400</v>
       </c>
-      <c r="W158" t="n">
+      <c r="X158" t="n">
         <v>24.66331307283585</v>
       </c>
-      <c r="X158" t="n">
+      <c r="Y158" t="n">
         <v>216.9204948</v>
       </c>
-      <c r="Y158" t="n">
+      <c r="Z158" t="n">
         <v>227.130058</v>
       </c>
-      <c r="Z158" t="n">
+      <c r="AA158" t="n">
         <v>211.096188</v>
       </c>
-      <c r="AA158" t="inlineStr">
+      <c r="AB158" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB158" t="n">
+      <c r="AC158" t="n">
         <v>212.6254454108921</v>
       </c>
-      <c r="AC158" t="n">
+      <c r="AD158" t="n">
         <v>0.927916565047993</v>
       </c>
     </row>
@@ -16409,6 +16853,7 @@
       <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="inlineStr"/>
       <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -16488,6 +16933,7 @@
       <c r="AA160" t="inlineStr"/>
       <c r="AB160" t="inlineStr"/>
       <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -16567,6 +17013,7 @@
       <c r="AA161" t="inlineStr"/>
       <c r="AB161" t="inlineStr"/>
       <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -16646,6 +17093,7 @@
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr"/>
       <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -16725,6 +17173,7 @@
       <c r="AA163" t="inlineStr"/>
       <c r="AB163" t="inlineStr"/>
       <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -16804,6 +17253,7 @@
       <c r="AA164" t="inlineStr"/>
       <c r="AB164" t="inlineStr"/>
       <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -16873,38 +17323,41 @@
       <c r="S165" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T165" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea26d</t>
-        </is>
-      </c>
-      <c r="U165" t="n">
+      <c r="T165" t="n">
+        <v>21.34144388812362</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d5a0</t>
+        </is>
+      </c>
+      <c r="V165" t="n">
         <v>26.16952050096042</v>
       </c>
-      <c r="V165" t="n">
+      <c r="W165" t="n">
         <v>370</v>
       </c>
-      <c r="W165" t="n">
+      <c r="X165" t="n">
         <v>26.28642264188944</v>
       </c>
-      <c r="X165" t="n">
+      <c r="Y165" t="n">
         <v>302.3635499000001</v>
       </c>
-      <c r="Y165" t="n">
+      <c r="Z165" t="n">
         <v>341.1531</v>
       </c>
-      <c r="Z165" t="n">
+      <c r="AA165" t="n">
         <v>313.7413026</v>
       </c>
-      <c r="AA165" t="inlineStr">
+      <c r="AB165" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB165" t="n">
+      <c r="AC165" t="n">
         <v>244.9929426793402</v>
       </c>
-      <c r="AC165" t="n">
+      <c r="AD165" t="n">
         <v>0.9587145965443284</v>
       </c>
     </row>
@@ -16986,6 +17439,7 @@
       <c r="AA166" t="inlineStr"/>
       <c r="AB166" t="inlineStr"/>
       <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -17055,38 +17509,41 @@
       <c r="S167" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T167" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1c6</t>
-        </is>
-      </c>
-      <c r="U167" t="n">
+      <c r="T167" t="n">
+        <v>19.39415355782895</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4f9</t>
+        </is>
+      </c>
+      <c r="V167" t="n">
         <v>19.2865037317477</v>
       </c>
-      <c r="V167" t="n">
+      <c r="W167" t="n">
         <v>370</v>
       </c>
-      <c r="W167" t="n">
+      <c r="X167" t="n">
         <v>19.60425047518709</v>
       </c>
-      <c r="X167" t="n">
+      <c r="Y167" t="n">
         <v>311.517318</v>
       </c>
-      <c r="Y167" t="n">
+      <c r="Z167" t="n">
         <v>295.4667366</v>
       </c>
-      <c r="Z167" t="n">
+      <c r="AA167" t="n">
         <v>276.927594</v>
       </c>
-      <c r="AA167" t="inlineStr">
+      <c r="AB167" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB167" t="n">
+      <c r="AC167" t="n">
         <v>182.7142125184102</v>
       </c>
-      <c r="AC167" t="n">
+      <c r="AD167" t="n">
         <v>0.9857749076285354</v>
       </c>
     </row>
@@ -17158,38 +17615,41 @@
       <c r="S168" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea278</t>
-        </is>
-      </c>
-      <c r="U168" t="n">
+      <c r="T168" t="n">
+        <v>22.59779515451074</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d5ab</t>
+        </is>
+      </c>
+      <c r="V168" t="n">
         <v>29.45309826298016</v>
       </c>
-      <c r="V168" t="n">
+      <c r="W168" t="n">
         <v>370</v>
       </c>
-      <c r="W168" t="n">
+      <c r="X168" t="n">
         <v>30.00269418526771</v>
       </c>
-      <c r="X168" t="n">
+      <c r="Y168" t="n">
         <v>352.4795928</v>
       </c>
-      <c r="Y168" t="n">
+      <c r="Z168" t="n">
         <v>332.7510090000001</v>
       </c>
-      <c r="Z168" t="n">
+      <c r="AA168" t="n">
         <v>344.805472</v>
       </c>
-      <c r="AA168" t="inlineStr">
+      <c r="AB168" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB168" t="n">
+      <c r="AC168" t="n">
         <v>279.6290859694068</v>
       </c>
-      <c r="AC168" t="n">
+      <c r="AD168" t="n">
         <v>0.6801512291766592</v>
       </c>
     </row>
@@ -17261,38 +17721,41 @@
       <c r="S169" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1cf</t>
-        </is>
-      </c>
-      <c r="U169" t="n">
+      <c r="T169" t="n">
+        <v>27.76121262839162</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d502</t>
+        </is>
+      </c>
+      <c r="V169" t="n">
         <v>28.69179918175906</v>
       </c>
-      <c r="V169" t="n">
+      <c r="W169" t="n">
         <v>370</v>
       </c>
-      <c r="W169" t="n">
+      <c r="X169" t="n">
         <v>28.73836432228059</v>
       </c>
-      <c r="X169" t="n">
+      <c r="Y169" t="n">
         <v>291.97632</v>
       </c>
-      <c r="Y169" t="n">
+      <c r="Z169" t="n">
         <v>288.313062</v>
       </c>
-      <c r="Z169" t="n">
+      <c r="AA169" t="n">
         <v>295.4630438999999</v>
       </c>
-      <c r="AA169" t="inlineStr">
+      <c r="AB169" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB169" t="n">
+      <c r="AC169" t="n">
         <v>267.845364088706</v>
       </c>
-      <c r="AC169" t="n">
+      <c r="AD169" t="n">
         <v>0.7477516500442793</v>
       </c>
     </row>
@@ -17374,6 +17837,7 @@
       <c r="AA170" t="inlineStr"/>
       <c r="AB170" t="inlineStr"/>
       <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -17453,6 +17917,7 @@
       <c r="AA171" t="inlineStr"/>
       <c r="AB171" t="inlineStr"/>
       <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -17522,38 +17987,41 @@
       <c r="S172" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T172" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea28a</t>
-        </is>
-      </c>
-      <c r="U172" t="n">
+      <c r="T172" t="n">
+        <v>26.11204480472755</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5bd</t>
+        </is>
+      </c>
+      <c r="V172" t="n">
         <v>31.08360158907979</v>
       </c>
-      <c r="V172" t="n">
+      <c r="W172" t="n">
         <v>385</v>
       </c>
-      <c r="W172" t="n">
+      <c r="X172" t="n">
         <v>31.11989486994812</v>
       </c>
-      <c r="X172" t="n">
+      <c r="Y172" t="n">
         <v>276.1992822</v>
       </c>
-      <c r="Y172" t="n">
+      <c r="Z172" t="n">
         <v>269.8756461</v>
       </c>
-      <c r="Z172" t="n">
+      <c r="AA172" t="n">
         <v>247.9383657</v>
       </c>
-      <c r="AA172" t="inlineStr">
+      <c r="AB172" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB172" t="n">
+      <c r="AC172" t="n">
         <v>278.7412244976547</v>
       </c>
-      <c r="AC172" t="n">
+      <c r="AD172" t="n">
         <v>0.8583861077303945</v>
       </c>
     </row>
@@ -17625,38 +18093,41 @@
       <c r="S173" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T173" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1d8</t>
-        </is>
-      </c>
-      <c r="U173" t="n">
+      <c r="T173" t="n">
+        <v>38.97951411861197</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d50b</t>
+        </is>
+      </c>
+      <c r="V173" t="n">
         <v>22.96461698712408</v>
       </c>
-      <c r="V173" t="n">
+      <c r="W173" t="n">
         <v>385</v>
       </c>
-      <c r="W173" t="n">
+      <c r="X173" t="n">
         <v>22.97512836817724</v>
       </c>
-      <c r="X173" t="n">
+      <c r="Y173" t="n">
         <v>298.691358</v>
       </c>
-      <c r="Y173" t="n">
+      <c r="Z173" t="n">
         <v>377.463464</v>
       </c>
-      <c r="Z173" t="n">
+      <c r="AA173" t="n">
         <v>282.303714</v>
       </c>
-      <c r="AA173" t="inlineStr">
+      <c r="AB173" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB173" t="n">
+      <c r="AC173" t="n">
         <v>205.7884655812528</v>
       </c>
-      <c r="AC173" t="n">
+      <c r="AD173" t="n">
         <v>0.7688763153237433</v>
       </c>
     </row>
@@ -17728,38 +18199,41 @@
       <c r="S174" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T174" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea281</t>
-        </is>
-      </c>
-      <c r="U174" t="n">
+      <c r="T174" t="n">
+        <v>27.94006038215964</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5b4</t>
+        </is>
+      </c>
+      <c r="V174" t="n">
         <v>29.69751548329342</v>
       </c>
-      <c r="V174" t="n">
+      <c r="W174" t="n">
         <v>385</v>
       </c>
-      <c r="W174" t="n">
+      <c r="X174" t="n">
         <v>29.78070345543679</v>
       </c>
-      <c r="X174" t="n">
+      <c r="Y174" t="n">
         <v>243.5120226</v>
       </c>
-      <c r="Y174" t="n">
+      <c r="Z174" t="n">
         <v>286.2702114</v>
       </c>
-      <c r="Z174" t="n">
+      <c r="AA174" t="n">
         <v>345.3896488</v>
       </c>
-      <c r="AA174" t="inlineStr">
+      <c r="AB174" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB174" t="n">
+      <c r="AC174" t="n">
         <v>266.7460729626759</v>
       </c>
-      <c r="AC174" t="n">
+      <c r="AD174" t="n">
         <v>0.9231671795781169</v>
       </c>
     </row>
@@ -17831,38 +18305,41 @@
       <c r="S175" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea293</t>
-        </is>
-      </c>
-      <c r="U175" t="n">
+      <c r="T175" t="n">
+        <v>37.28241302838828</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5c6</t>
+        </is>
+      </c>
+      <c r="V175" t="n">
         <v>41.11430780126948</v>
       </c>
-      <c r="V175" t="n">
+      <c r="W175" t="n">
         <v>385</v>
       </c>
-      <c r="W175" t="n">
+      <c r="X175" t="n">
         <v>41.94821215100872</v>
       </c>
-      <c r="X175" t="n">
+      <c r="Y175" t="n">
         <v>386.9919396</v>
       </c>
-      <c r="Y175" t="n">
+      <c r="Z175" t="n">
         <v>325.5774892</v>
       </c>
-      <c r="Z175" t="n">
+      <c r="AA175" t="n">
         <v>369.1343909</v>
       </c>
-      <c r="AA175" t="inlineStr">
+      <c r="AB175" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB175" t="n">
+      <c r="AC175" t="n">
         <v>375.7305758687179</v>
       </c>
-      <c r="AC175" t="n">
+      <c r="AD175" t="n">
         <v>0.932855857840301</v>
       </c>
     </row>
@@ -17934,38 +18411,41 @@
       <c r="S176" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1e1</t>
-        </is>
-      </c>
-      <c r="U176" t="n">
+      <c r="T176" t="n">
+        <v>33.98735986904719</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d514</t>
+        </is>
+      </c>
+      <c r="V176" t="n">
         <v>23.77857530160091</v>
       </c>
-      <c r="V176" t="n">
+      <c r="W176" t="n">
         <v>455</v>
       </c>
-      <c r="W176" t="n">
+      <c r="X176" t="n">
         <v>24.16105877713304</v>
       </c>
-      <c r="X176" t="n">
+      <c r="Y176" t="n">
         <v>299.8627465999999</v>
       </c>
-      <c r="Y176" t="n">
+      <c r="Z176" t="n">
         <v>305.4655784</v>
       </c>
-      <c r="Z176" t="n">
+      <c r="AA176" t="n">
         <v>260.764338</v>
       </c>
-      <c r="AA176" t="inlineStr">
+      <c r="AB176" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB176" t="n">
+      <c r="AC176" t="n">
         <v>183.1168787319731</v>
       </c>
-      <c r="AC176" t="n">
+      <c r="AD176" t="n">
         <v>0.9031187097197093</v>
       </c>
     </row>
@@ -18037,38 +18517,41 @@
       <c r="S177" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T177" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1e3</t>
-        </is>
-      </c>
-      <c r="U177" t="n">
+      <c r="T177" t="n">
+        <v>49.80999196659403</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d516</t>
+        </is>
+      </c>
+      <c r="V177" t="n">
         <v>35.28290170703388</v>
       </c>
-      <c r="V177" t="n">
+      <c r="W177" t="n">
         <v>455</v>
       </c>
-      <c r="W177" t="n">
+      <c r="X177" t="n">
         <v>35.96522251994786</v>
       </c>
-      <c r="X177" t="n">
+      <c r="Y177" t="n">
         <v>320.3959288</v>
       </c>
-      <c r="Y177" t="n">
+      <c r="Z177" t="n">
         <v>282.2527864</v>
       </c>
-      <c r="Z177" t="n">
+      <c r="AA177" t="n">
         <v>316.026021</v>
       </c>
-      <c r="AA177" t="inlineStr">
+      <c r="AB177" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB177" t="n">
+      <c r="AC177" t="n">
         <v>272.5807404179992</v>
       </c>
-      <c r="AC177" t="n">
+      <c r="AD177" t="n">
         <v>0.5617760912601703</v>
       </c>
     </row>
@@ -18140,38 +18623,41 @@
       <c r="S178" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T178" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea29e</t>
-        </is>
-      </c>
-      <c r="U178" t="n">
+      <c r="T178" t="n">
+        <v>47.63839525890084</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5d1</t>
+        </is>
+      </c>
+      <c r="V178" t="n">
         <v>44.28545648745536</v>
       </c>
-      <c r="V178" t="n">
+      <c r="W178" t="n">
         <v>455</v>
       </c>
-      <c r="W178" t="n">
+      <c r="X178" t="n">
         <v>44.35540633050358</v>
       </c>
-      <c r="X178" t="n">
+      <c r="Y178" t="n">
         <v>325.5767928</v>
       </c>
-      <c r="Y178" t="n">
+      <c r="Z178" t="n">
         <v>375.89904</v>
       </c>
-      <c r="Z178" t="n">
+      <c r="AA178" t="n">
         <v>365.6473623</v>
       </c>
-      <c r="AA178" t="inlineStr">
+      <c r="AB178" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB178" t="n">
+      <c r="AC178" t="n">
         <v>336.1700179222859</v>
       </c>
-      <c r="AC178" t="n">
+      <c r="AD178" t="n">
         <v>0.9638751121192215</v>
       </c>
     </row>
@@ -18243,38 +18729,41 @@
       <c r="S179" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T179" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea2a7</t>
-        </is>
-      </c>
-      <c r="U179" t="n">
+      <c r="T179" t="n">
+        <v>32.84973477306396</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5da</t>
+        </is>
+      </c>
+      <c r="V179" t="n">
         <v>36.96849705192815</v>
       </c>
-      <c r="V179" t="n">
+      <c r="W179" t="n">
         <v>455</v>
       </c>
-      <c r="W179" t="n">
+      <c r="X179" t="n">
         <v>36.97319264490816</v>
       </c>
-      <c r="X179" t="n">
+      <c r="Y179" t="n">
         <v>304.4191248</v>
       </c>
-      <c r="Y179" t="n">
+      <c r="Z179" t="n">
         <v>330.87267</v>
       </c>
-      <c r="Z179" t="n">
+      <c r="AA179" t="n">
         <v>315.995796</v>
       </c>
-      <c r="AA179" t="inlineStr">
+      <c r="AB179" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB179" t="n">
+      <c r="AC179" t="n">
         <v>280.2201549337446</v>
       </c>
-      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -18344,38 +18833,41 @@
       <c r="S180" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1f2</t>
-        </is>
-      </c>
-      <c r="U180" t="n">
+      <c r="T180" t="n">
+        <v>30.95413191581126</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d525</t>
+        </is>
+      </c>
+      <c r="V180" t="n">
         <v>28.19025564935648</v>
       </c>
-      <c r="V180" t="n">
+      <c r="W180" t="n">
         <v>455</v>
       </c>
-      <c r="W180" t="n">
+      <c r="X180" t="n">
         <v>28.721920765215</v>
       </c>
-      <c r="X180" t="n">
+      <c r="Y180" t="n">
         <v>295.0284678</v>
       </c>
-      <c r="Y180" t="n">
+      <c r="Z180" t="n">
         <v>269.070432</v>
       </c>
-      <c r="Z180" t="n">
+      <c r="AA180" t="n">
         <v>276.925374</v>
       </c>
-      <c r="AA180" t="inlineStr">
+      <c r="AB180" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB180" t="n">
+      <c r="AC180" t="n">
         <v>217.683692185335</v>
       </c>
-      <c r="AC180" t="n">
+      <c r="AD180" t="n">
         <v>0.9536910272539569</v>
       </c>
     </row>
@@ -18447,38 +18939,41 @@
       <c r="S181" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1f4</t>
-        </is>
-      </c>
-      <c r="U181" t="n">
+      <c r="T181" t="n">
+        <v>34.35919132062088</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d527</t>
+        </is>
+      </c>
+      <c r="V181" t="n">
         <v>36.49694014156258</v>
       </c>
-      <c r="V181" t="n">
+      <c r="W181" t="n">
         <v>455</v>
       </c>
-      <c r="W181" t="n">
+      <c r="X181" t="n">
         <v>37.2397192482389</v>
       </c>
-      <c r="X181" t="n">
+      <c r="Y181" t="n">
         <v>328.0271394</v>
       </c>
-      <c r="Y181" t="n">
+      <c r="Z181" t="n">
         <v>308.2294559999999</v>
       </c>
-      <c r="Z181" t="n">
+      <c r="AA181" t="n">
         <v>328.0929388</v>
       </c>
-      <c r="AA181" t="inlineStr">
+      <c r="AB181" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB181" t="n">
+      <c r="AC181" t="n">
         <v>282.2401624239441</v>
       </c>
-      <c r="AC181" t="n">
+      <c r="AD181" t="n">
         <v>0.8181881689495749</v>
       </c>
     </row>
@@ -18550,38 +19045,41 @@
       <c r="S182" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T182" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea203</t>
-        </is>
-      </c>
-      <c r="U182" t="n">
+      <c r="T182" t="n">
+        <v>32.64640319696538</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d536</t>
+        </is>
+      </c>
+      <c r="V182" t="n">
         <v>34.76991273781095</v>
       </c>
-      <c r="V182" t="n">
+      <c r="W182" t="n">
         <v>455</v>
       </c>
-      <c r="W182" t="n">
+      <c r="X182" t="n">
         <v>35.47065066958163</v>
       </c>
-      <c r="X182" t="n">
+      <c r="Y182" t="n">
         <v>329.506425</v>
       </c>
-      <c r="Y182" t="n">
+      <c r="Z182" t="n">
         <v>295.9235188</v>
       </c>
-      <c r="Z182" t="n">
+      <c r="AA182" t="n">
         <v>314.5583444</v>
       </c>
-      <c r="AA182" t="inlineStr">
+      <c r="AB182" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB182" t="n">
+      <c r="AC182" t="n">
         <v>268.8323759782143</v>
       </c>
-      <c r="AC182" t="n">
+      <c r="AD182" t="n">
         <v>0.9835009794499538</v>
       </c>
     </row>
@@ -18653,38 +19151,41 @@
       <c r="S183" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T183" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea2b0</t>
-        </is>
-      </c>
-      <c r="U183" t="n">
+      <c r="T183" t="n">
+        <v>39.4414408529179</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5e3</t>
+        </is>
+      </c>
+      <c r="V183" t="n">
         <v>39.02577693215903</v>
       </c>
-      <c r="V183" t="n">
+      <c r="W183" t="n">
         <v>455</v>
       </c>
-      <c r="W183" t="n">
+      <c r="X183" t="n">
         <v>39.18930317492293</v>
       </c>
-      <c r="X183" t="n">
+      <c r="Y183" t="n">
         <v>368.7182572999999</v>
       </c>
-      <c r="Y183" t="n">
+      <c r="Z183" t="n">
         <v>292.5236922</v>
       </c>
-      <c r="Z183" t="n">
+      <c r="AA183" t="n">
         <v>289.802604</v>
       </c>
-      <c r="AA183" t="inlineStr">
+      <c r="AB183" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB183" t="n">
+      <c r="AC183" t="n">
         <v>297.0160762931775</v>
       </c>
-      <c r="AC183" t="n">
+      <c r="AD183" t="n">
         <v>0.9889768329223187</v>
       </c>
     </row>
@@ -18756,38 +19257,41 @@
       <c r="S184" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea20c</t>
-        </is>
-      </c>
-      <c r="U184" t="n">
+      <c r="T184" t="n">
+        <v>36.44778654202474</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d53f</t>
+        </is>
+      </c>
+      <c r="V184" t="n">
         <v>26.73027614391297</v>
       </c>
-      <c r="V184" t="n">
+      <c r="W184" t="n">
         <v>455</v>
       </c>
-      <c r="W184" t="n">
+      <c r="X184" t="n">
         <v>26.85293956664093</v>
       </c>
-      <c r="X184" t="n">
+      <c r="Y184" t="n">
         <v>288.0534417</v>
       </c>
-      <c r="Y184" t="n">
+      <c r="Z184" t="n">
         <v>287.1221985</v>
       </c>
-      <c r="Z184" t="n">
+      <c r="AA184" t="n">
         <v>313.1726089</v>
       </c>
-      <c r="AA184" t="inlineStr">
+      <c r="AB184" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB184" t="n">
+      <c r="AC184" t="n">
         <v>203.5186671072314</v>
       </c>
-      <c r="AC184" t="n">
+      <c r="AD184" t="n">
         <v>0.9294947549472434</v>
       </c>
     </row>
@@ -18859,38 +19363,41 @@
       <c r="S185" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea217</t>
-        </is>
-      </c>
-      <c r="U185" t="n">
+      <c r="T185" t="n">
+        <v>38.41448340915647</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d54a</t>
+        </is>
+      </c>
+      <c r="V185" t="n">
         <v>31.48189304740949</v>
       </c>
-      <c r="V185" t="n">
+      <c r="W185" t="n">
         <v>455</v>
       </c>
-      <c r="W185" t="n">
+      <c r="X185" t="n">
         <v>32.10811877198707</v>
       </c>
-      <c r="X185" t="n">
+      <c r="Y185" t="n">
         <v>313.63626</v>
       </c>
-      <c r="Y185" t="n">
+      <c r="Z185" t="n">
         <v>296.9822878000001</v>
       </c>
-      <c r="Z185" t="n">
+      <c r="AA185" t="n">
         <v>241.197336</v>
       </c>
-      <c r="AA185" t="inlineStr">
+      <c r="AB185" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB185" t="n">
+      <c r="AC185" t="n">
         <v>243.3477169074382</v>
       </c>
-      <c r="AC185" t="n">
+      <c r="AD185" t="n">
         <v>0.7355078140554947</v>
       </c>
     </row>
@@ -18962,38 +19469,41 @@
       <c r="S186" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T186" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea222</t>
-        </is>
-      </c>
-      <c r="U186" t="n">
+      <c r="T186" t="n">
+        <v>31.13424943658793</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d555</t>
+        </is>
+      </c>
+      <c r="V186" t="n">
         <v>26.48666992296654</v>
       </c>
-      <c r="V186" t="n">
+      <c r="W186" t="n">
         <v>455</v>
       </c>
-      <c r="W186" t="n">
+      <c r="X186" t="n">
         <v>27.01565766881514</v>
       </c>
-      <c r="X186" t="n">
+      <c r="Y186" t="n">
         <v>290.9265835</v>
       </c>
-      <c r="Y186" t="n">
+      <c r="Z186" t="n">
         <v>292.218712</v>
       </c>
-      <c r="Z186" t="n">
+      <c r="AA186" t="n">
         <v>294.241125</v>
       </c>
-      <c r="AA186" t="inlineStr">
+      <c r="AB186" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB186" t="n">
+      <c r="AC186" t="n">
         <v>204.7519090465927</v>
       </c>
-      <c r="AC186" t="n">
+      <c r="AD186" t="n">
         <v>0.9498652239219343</v>
       </c>
     </row>
@@ -19065,38 +19575,41 @@
       <c r="S187" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T187" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea23c</t>
-        </is>
-      </c>
-      <c r="U187" t="n">
+      <c r="T187" t="n">
+        <v>21.51178959337583</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d56f</t>
+        </is>
+      </c>
+      <c r="V187" t="n">
         <v>20.70811262507129</v>
       </c>
-      <c r="V187" t="n">
+      <c r="W187" t="n">
         <v>455</v>
       </c>
-      <c r="W187" t="n">
+      <c r="X187" t="n">
         <v>21.06409936106715</v>
       </c>
-      <c r="X187" t="n">
+      <c r="Y187" t="n">
         <v>236.3749416</v>
       </c>
-      <c r="Y187" t="n">
+      <c r="Z187" t="n">
         <v>249.774364</v>
       </c>
-      <c r="Z187" t="n">
+      <c r="AA187" t="n">
         <v>251.0789309</v>
       </c>
-      <c r="AA187" t="inlineStr">
+      <c r="AB187" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB187" t="n">
+      <c r="AC187" t="n">
         <v>159.6449958537977</v>
       </c>
-      <c r="AC187" t="n">
+      <c r="AD187" t="n">
         <v>0.9768361512949595</v>
       </c>
     </row>
@@ -19168,38 +19681,41 @@
       <c r="S188" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T188" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea23e</t>
-        </is>
-      </c>
-      <c r="U188" t="n">
+      <c r="T188" t="n">
+        <v>19.79094752105591</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d571</t>
+        </is>
+      </c>
+      <c r="V188" t="n">
         <v>26.18106917291921</v>
       </c>
-      <c r="V188" t="n">
+      <c r="W188" t="n">
         <v>455</v>
       </c>
-      <c r="W188" t="n">
+      <c r="X188" t="n">
         <v>26.71135133448309</v>
       </c>
-      <c r="X188" t="n">
+      <c r="Y188" t="n">
         <v>174.2600979</v>
       </c>
-      <c r="Y188" t="n">
+      <c r="Z188" t="n">
         <v>176.5689079</v>
       </c>
-      <c r="Z188" t="n">
+      <c r="AA188" t="n">
         <v>222.1706655</v>
       </c>
-      <c r="AA188" t="inlineStr">
+      <c r="AB188" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB188" t="n">
+      <c r="AC188" t="n">
         <v>202.4455686401038</v>
       </c>
-      <c r="AC188" t="n">
+      <c r="AD188" t="n">
         <v>0.8292845851897255</v>
       </c>
     </row>
@@ -19271,38 +19787,41 @@
       <c r="S189" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T189" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea240</t>
-        </is>
-      </c>
-      <c r="U189" t="n">
+      <c r="T189" t="n">
+        <v>26.86936334994345</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d573</t>
+        </is>
+      </c>
+      <c r="V189" t="n">
         <v>20.47870766047297</v>
       </c>
-      <c r="V189" t="n">
+      <c r="W189" t="n">
         <v>455</v>
       </c>
-      <c r="W189" t="n">
+      <c r="X189" t="n">
         <v>20.65706647850809</v>
       </c>
-      <c r="X189" t="n">
+      <c r="Y189" t="n">
         <v>278.1062319</v>
       </c>
-      <c r="Y189" t="n">
+      <c r="Z189" t="n">
         <v>261.6000289</v>
       </c>
-      <c r="Z189" t="n">
+      <c r="AA189" t="n">
         <v>305.5230689</v>
       </c>
-      <c r="AA189" t="inlineStr">
+      <c r="AB189" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB189" t="n">
+      <c r="AC189" t="n">
         <v>156.5600900273181</v>
       </c>
-      <c r="AC189" t="n">
+      <c r="AD189" t="n">
         <v>0.8581906133878546</v>
       </c>
     </row>
@@ -19374,38 +19893,41 @@
       <c r="S190" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T190" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea255</t>
-        </is>
-      </c>
-      <c r="U190" t="n">
+      <c r="T190" t="n">
+        <v>24.99239398403173</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d588</t>
+        </is>
+      </c>
+      <c r="V190" t="n">
         <v>30.30305244923433</v>
       </c>
-      <c r="V190" t="n">
+      <c r="W190" t="n">
         <v>455</v>
       </c>
-      <c r="W190" t="n">
+      <c r="X190" t="n">
         <v>30.31719375076593</v>
       </c>
-      <c r="X190" t="n">
+      <c r="Y190" t="n">
         <v>321.646494</v>
       </c>
-      <c r="Y190" t="n">
+      <c r="Z190" t="n">
         <v>296.8619483</v>
       </c>
-      <c r="Z190" t="n">
+      <c r="AA190" t="n">
         <v>316.3064695</v>
       </c>
-      <c r="AA190" t="inlineStr">
+      <c r="AB190" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB190" t="n">
+      <c r="AC190" t="n">
         <v>229.774280289694</v>
       </c>
-      <c r="AC190" t="n">
+      <c r="AD190" t="n">
         <v>0.8919470757532783</v>
       </c>
     </row>
@@ -19477,38 +19999,41 @@
       <c r="S191" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T191" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea255</t>
-        </is>
-      </c>
-      <c r="U191" t="n">
+      <c r="T191" t="n">
+        <v>35.59638997970578</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d588</t>
+        </is>
+      </c>
+      <c r="V191" t="n">
         <v>30.30305244923433</v>
       </c>
-      <c r="V191" t="n">
+      <c r="W191" t="n">
         <v>455</v>
       </c>
-      <c r="W191" t="n">
+      <c r="X191" t="n">
         <v>30.31719375076593</v>
       </c>
-      <c r="X191" t="n">
+      <c r="Y191" t="n">
         <v>264.5162804</v>
       </c>
-      <c r="Y191" t="n">
+      <c r="Z191" t="n">
         <v>274.1665738</v>
       </c>
-      <c r="Z191" t="n">
+      <c r="AA191" t="n">
         <v>306.1503096</v>
       </c>
-      <c r="AA191" t="inlineStr">
+      <c r="AB191" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB191" t="n">
+      <c r="AC191" t="n">
         <v>229.774280289694</v>
       </c>
-      <c r="AC191" t="n">
+      <c r="AD191" t="n">
         <v>0.8919470757532783</v>
       </c>
     </row>
@@ -19580,38 +20105,41 @@
       <c r="S192" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T192" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea22d</t>
-        </is>
-      </c>
-      <c r="U192" t="n">
+      <c r="T192" t="n">
+        <v>28.11031751053916</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d560</t>
+        </is>
+      </c>
+      <c r="V192" t="n">
         <v>23.27731262873623</v>
       </c>
-      <c r="V192" t="n">
+      <c r="W192" t="n">
         <v>455</v>
       </c>
-      <c r="W192" t="n">
+      <c r="X192" t="n">
         <v>23.28027321029692</v>
       </c>
-      <c r="X192" t="n">
+      <c r="Y192" t="n">
         <v>266.5960134000001</v>
       </c>
-      <c r="Y192" t="n">
+      <c r="Z192" t="n">
         <v>250.714436</v>
       </c>
-      <c r="Z192" t="n">
+      <c r="AA192" t="n">
         <v>234.776375</v>
       </c>
-      <c r="AA192" t="inlineStr">
+      <c r="AB192" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB192" t="n">
+      <c r="AC192" t="n">
         <v>176.4413971101227</v>
       </c>
-      <c r="AC192" t="n">
+      <c r="AD192" t="n">
         <v>0.8017430160414579</v>
       </c>
     </row>
@@ -19683,38 +20211,41 @@
       <c r="S193" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T193" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea22d</t>
-        </is>
-      </c>
-      <c r="U193" t="n">
+      <c r="T193" t="n">
+        <v>20.70244914705901</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d560</t>
+        </is>
+      </c>
+      <c r="V193" t="n">
         <v>23.27731262873623</v>
       </c>
-      <c r="V193" t="n">
+      <c r="W193" t="n">
         <v>455</v>
       </c>
-      <c r="W193" t="n">
+      <c r="X193" t="n">
         <v>23.28027321029692</v>
       </c>
-      <c r="X193" t="n">
+      <c r="Y193" t="n">
         <v>193.4912926</v>
       </c>
-      <c r="Y193" t="n">
+      <c r="Z193" t="n">
         <v>228.712288</v>
       </c>
-      <c r="Z193" t="n">
+      <c r="AA193" t="n">
         <v>232.86175</v>
       </c>
-      <c r="AA193" t="inlineStr">
+      <c r="AB193" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB193" t="n">
+      <c r="AC193" t="n">
         <v>176.4413971101227</v>
       </c>
-      <c r="AC193" t="n">
+      <c r="AD193" t="n">
         <v>0.8017430160414579</v>
       </c>
     </row>

--- a/fifty_one/measurements/updated_filtered_data_with_lengths.xlsx
+++ b/fifty_one/measurements/updated_filtered_data_with_lengths.xlsx
@@ -748,7 +748,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b66</t>
+          <t>66f70373a04dfd6d00545bf4</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b6c</t>
+          <t>66f70373a04dfd6d00545bfa</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b68</t>
+          <t>66f70373a04dfd6d00545bf6</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b6a</t>
+          <t>66f70373a04dfd6d00545bf8</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b87</t>
+          <t>66f70374a04dfd6d00545c15</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b89</t>
+          <t>66f70374a04dfd6d00545c17</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b8b</t>
+          <t>66f70374a04dfd6d00545c19</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327ba2</t>
+          <t>66f70374a04dfd6d00545c30</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327ba0</t>
+          <t>66f70374a04dfd6d00545c2e</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bb3</t>
+          <t>66f70374a04dfd6d00545c41</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bb1</t>
+          <t>66f70374a04dfd6d00545c3f</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bb7</t>
+          <t>66f70374a04dfd6d00545c45</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bb5</t>
+          <t>66f70374a04dfd6d00545c43</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bd6</t>
+          <t>66f70374a04dfd6d00545c64</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bd8</t>
+          <t>66f70374a04dfd6d00545c66</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327be7</t>
+          <t>66f70374a04dfd6d00545c75</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327be9</t>
+          <t>66f70374a04dfd6d00545c77</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327bfc</t>
+          <t>66f70374a04dfd6d00545c8a</t>
         </is>
       </c>
       <c r="V19" t="n">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327bfa</t>
+          <t>66f70374a04dfd6d00545c88</t>
         </is>
       </c>
       <c r="V20" t="n">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c00</t>
+          <t>66f70374a04dfd6d00545c8e</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c19</t>
+          <t>66f70374a04dfd6d00545ca7</t>
         </is>
       </c>
       <c r="V22" t="n">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c17</t>
+          <t>66f70374a04dfd6d00545ca5</t>
         </is>
       </c>
       <c r="V23" t="n">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c1b</t>
+          <t>66f70374a04dfd6d00545ca9</t>
         </is>
       </c>
       <c r="V24" t="n">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c38</t>
+          <t>66f70375a04dfd6d00545cc6</t>
         </is>
       </c>
       <c r="V25" t="n">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c36</t>
+          <t>66f70375a04dfd6d00545cc4</t>
         </is>
       </c>
       <c r="V26" t="n">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c3a</t>
+          <t>66f70375a04dfd6d00545cc8</t>
         </is>
       </c>
       <c r="V27" t="n">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c53</t>
+          <t>66f70375a04dfd6d00545ce1</t>
         </is>
       </c>
       <c r="V35" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c57</t>
+          <t>66f70375a04dfd6d00545ce5</t>
         </is>
       </c>
       <c r="V36" t="n">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c59</t>
+          <t>66f70375a04dfd6d00545ce7</t>
         </is>
       </c>
       <c r="V37" t="n">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c4f</t>
+          <t>66f70375a04dfd6d00545cdd</t>
         </is>
       </c>
       <c r="V38" t="n">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c55</t>
+          <t>66f70375a04dfd6d00545ce3</t>
         </is>
       </c>
       <c r="V39" t="n">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c7e</t>
+          <t>66f70375a04dfd6d00545d0c</t>
         </is>
       </c>
       <c r="V40" t="n">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c82</t>
+          <t>66f70375a04dfd6d00545d10</t>
         </is>
       </c>
       <c r="V41" t="n">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c8c</t>
+          <t>66f70375a04dfd6d00545d1a</t>
         </is>
       </c>
       <c r="V42" t="n">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c80</t>
+          <t>66f70375a04dfd6d00545d0e</t>
         </is>
       </c>
       <c r="V43" t="n">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cad</t>
+          <t>66f70375a04dfd6d00545d3b</t>
         </is>
       </c>
       <c r="V44" t="n">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327caf</t>
+          <t>66f70375a04dfd6d00545d3d</t>
         </is>
       </c>
       <c r="V45" t="n">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cb3</t>
+          <t>66f70375a04dfd6d00545d41</t>
         </is>
       </c>
       <c r="V46" t="n">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cd2</t>
+          <t>66f70375a04dfd6d00545d60</t>
         </is>
       </c>
       <c r="V47" t="n">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cce</t>
+          <t>66f70375a04dfd6d00545d5c</t>
         </is>
       </c>
       <c r="V48" t="n">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cd0</t>
+          <t>66f70375a04dfd6d00545d5e</t>
         </is>
       </c>
       <c r="V49" t="n">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327ccc</t>
+          <t>66f70375a04dfd6d00545d5a</t>
         </is>
       </c>
       <c r="V50" t="n">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cfb</t>
+          <t>66f70376a04dfd6d00545d89</t>
         </is>
       </c>
       <c r="V51" t="n">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cf9</t>
+          <t>66f70376a04dfd6d00545d87</t>
         </is>
       </c>
       <c r="V52" t="n">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327d01</t>
+          <t>66f70376a04dfd6d00545d8f</t>
         </is>
       </c>
       <c r="V53" t="n">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cfd</t>
+          <t>66f70376a04dfd6d00545d8b</t>
         </is>
       </c>
       <c r="V54" t="n">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cf7</t>
+          <t>66f70376a04dfd6d00545d85</t>
         </is>
       </c>
       <c r="V55" t="n">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d7d</t>
+          <t>66f70376a04dfd6d00545e0b</t>
         </is>
       </c>
       <c r="V56" t="n">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d79</t>
+          <t>66f70376a04dfd6d00545e07</t>
         </is>
       </c>
       <c r="V57" t="n">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d7b</t>
+          <t>66f70376a04dfd6d00545e09</t>
         </is>
       </c>
       <c r="V58" t="n">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d81</t>
+          <t>66f70376a04dfd6d00545e0f</t>
         </is>
       </c>
       <c r="V59" t="n">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d7d</t>
+          <t>66f70376a04dfd6d00545e0b</t>
         </is>
       </c>
       <c r="V60" t="n">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d83</t>
+          <t>66f70376a04dfd6d00545e11</t>
         </is>
       </c>
       <c r="V61" t="n">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d51</t>
+          <t>66f70376a04dfd6d00545ddf</t>
         </is>
       </c>
       <c r="V62" t="n">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d4f</t>
+          <t>66f70376a04dfd6d00545ddd</t>
         </is>
       </c>
       <c r="V63" t="n">
@@ -10224,7 +10224,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d60</t>
+          <t>66f70376a04dfd6d00545dee</t>
         </is>
       </c>
       <c r="V64" t="n">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d64</t>
+          <t>66f70376a04dfd6d00545df2</t>
         </is>
       </c>
       <c r="V65" t="n">
@@ -10544,7 +10544,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d62</t>
+          <t>66f70376a04dfd6d00545df0</t>
         </is>
       </c>
       <c r="V66" t="n">
@@ -10704,7 +10704,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d2e</t>
+          <t>66f70376a04dfd6d00545dbc</t>
         </is>
       </c>
       <c r="V67" t="n">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d32</t>
+          <t>66f70376a04dfd6d00545dc0</t>
         </is>
       </c>
       <c r="V68" t="n">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d2c</t>
+          <t>66f70376a04dfd6d00545dba</t>
         </is>
       </c>
       <c r="V69" t="n">
@@ -11182,7 +11182,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d34</t>
+          <t>66f70376a04dfd6d00545dc2</t>
         </is>
       </c>
       <c r="V70" t="n">
@@ -11340,7 +11340,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327de4</t>
+          <t>66f70377a04dfd6d00545e72</t>
         </is>
       </c>
       <c r="V71" t="n">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327de8</t>
+          <t>66f70377a04dfd6d00545e76</t>
         </is>
       </c>
       <c r="V72" t="n">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327de0</t>
+          <t>66f70377a04dfd6d00545e6e</t>
         </is>
       </c>
       <c r="V73" t="n">
@@ -11818,7 +11818,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327de2</t>
+          <t>66f70377a04dfd6d00545e70</t>
         </is>
       </c>
       <c r="V74" t="n">
@@ -11978,7 +11978,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327de6</t>
+          <t>66f70377a04dfd6d00545e74</t>
         </is>
       </c>
       <c r="V75" t="n">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327dac</t>
+          <t>66f70377a04dfd6d00545e3a</t>
         </is>
       </c>
       <c r="V76" t="n">
@@ -12298,7 +12298,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327db0</t>
+          <t>66f70377a04dfd6d00545e3e</t>
         </is>
       </c>
       <c r="V77" t="n">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327db2</t>
+          <t>66f70377a04dfd6d00545e40</t>
         </is>
       </c>
       <c r="V78" t="n">
@@ -12618,7 +12618,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327dae</t>
+          <t>66f70377a04dfd6d00545e3c</t>
         </is>
       </c>
       <c r="V79" t="n">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327dcf</t>
+          <t>66f70377a04dfd6d00545e5d</t>
         </is>
       </c>
       <c r="V80" t="n">
@@ -12938,7 +12938,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327dcd</t>
+          <t>66f70377a04dfd6d00545e5b</t>
         </is>
       </c>
       <c r="V81" t="n">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e0d</t>
+          <t>66f70377a04dfd6d00545e9b</t>
         </is>
       </c>
       <c r="V82" t="n">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e0d</t>
+          <t>66f70377a04dfd6d00545e9b</t>
         </is>
       </c>
       <c r="V83" t="n">
@@ -13418,7 +13418,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e11</t>
+          <t>66f70377a04dfd6d00545e9f</t>
         </is>
       </c>
       <c r="V84" t="n">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e28</t>
+          <t>66f70377a04dfd6d00545eb6</t>
         </is>
       </c>
       <c r="V85" t="n">
@@ -13738,7 +13738,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e2c</t>
+          <t>66f70377a04dfd6d00545eba</t>
         </is>
       </c>
       <c r="V86" t="n">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e2a</t>
+          <t>66f70377a04dfd6d00545eb8</t>
         </is>
       </c>
       <c r="V87" t="n">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e45</t>
+          <t>66f70377a04dfd6d00545ed3</t>
         </is>
       </c>
       <c r="V88" t="n">
@@ -14214,7 +14214,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e43</t>
+          <t>66f70377a04dfd6d00545ed1</t>
         </is>
       </c>
       <c r="V89" t="n">
@@ -14372,7 +14372,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e5c</t>
+          <t>66f70378a04dfd6d00545eea</t>
         </is>
       </c>
       <c r="V90" t="n">
@@ -14532,7 +14532,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e64</t>
+          <t>66f70378a04dfd6d00545ef2</t>
         </is>
       </c>
       <c r="V91" t="n">
@@ -14690,7 +14690,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e58</t>
+          <t>66f70378a04dfd6d00545ee6</t>
         </is>
       </c>
       <c r="V92" t="n">
@@ -14850,7 +14850,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e5a</t>
+          <t>66f70378a04dfd6d00545ee8</t>
         </is>
       </c>
       <c r="V93" t="n">
@@ -15010,7 +15010,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e62</t>
+          <t>66f70378a04dfd6d00545ef0</t>
         </is>
       </c>
       <c r="V94" t="n">
@@ -15170,7 +15170,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e62</t>
+          <t>66f70378a04dfd6d00545ef0</t>
         </is>
       </c>
       <c r="V95" t="n">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e8f</t>
+          <t>66f70378a04dfd6d00545f1d</t>
         </is>
       </c>
       <c r="V96" t="n">
@@ -15490,7 +15490,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e89</t>
+          <t>66f70378a04dfd6d00545f17</t>
         </is>
       </c>
       <c r="V97" t="n">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e8d</t>
+          <t>66f70378a04dfd6d00545f1b</t>
         </is>
       </c>
       <c r="V98" t="n">
@@ -15810,7 +15810,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e8b</t>
+          <t>66f70378a04dfd6d00545f19</t>
         </is>
       </c>
       <c r="V99" t="n">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f8d</t>
+          <t>66f7037ba04dfd6d0054601b</t>
         </is>
       </c>
       <c r="V100" t="n">
@@ -16130,7 +16130,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f91</t>
+          <t>66f7037ba04dfd6d0054601f</t>
         </is>
       </c>
       <c r="V101" t="n">
@@ -16290,7 +16290,7 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f93</t>
+          <t>66f7037ba04dfd6d00546021</t>
         </is>
       </c>
       <c r="V102" t="n">
@@ -16450,7 +16450,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f8f</t>
+          <t>66f7037ba04dfd6d0054601d</t>
         </is>
       </c>
       <c r="V103" t="n">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327eae</t>
+          <t>66f70378a04dfd6d00545f3c</t>
         </is>
       </c>
       <c r="V104" t="n">
@@ -16768,7 +16768,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327eb0</t>
+          <t>66f70378a04dfd6d00545f3e</t>
         </is>
       </c>
       <c r="V105" t="n">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fb4</t>
+          <t>66f7037ca04dfd6d00546042</t>
         </is>
       </c>
       <c r="V106" t="n">
@@ -17088,7 +17088,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fb0</t>
+          <t>66f7037ca04dfd6d0054603e</t>
         </is>
       </c>
       <c r="V107" t="n">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fb8</t>
+          <t>66f7037ca04dfd6d00546046</t>
         </is>
       </c>
       <c r="V108" t="n">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fb2</t>
+          <t>66f7037ca04dfd6d00546040</t>
         </is>
       </c>
       <c r="V109" t="n">
@@ -17568,7 +17568,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ef6</t>
+          <t>66f70378a04dfd6d00545f84</t>
         </is>
       </c>
       <c r="V110" t="n">
@@ -17728,7 +17728,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ef8</t>
+          <t>66f70378a04dfd6d00545f86</t>
         </is>
       </c>
       <c r="V111" t="n">
@@ -17888,7 +17888,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ecc</t>
+          <t>66f70378a04dfd6d00545f5a</t>
         </is>
       </c>
       <c r="V112" t="n">
@@ -18048,7 +18048,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327eca</t>
+          <t>66f70378a04dfd6d00545f58</t>
         </is>
       </c>
       <c r="V113" t="n">
@@ -18208,7 +18208,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ece</t>
+          <t>66f70378a04dfd6d00545f5c</t>
         </is>
       </c>
       <c r="V114" t="n">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ee7</t>
+          <t>66f70378a04dfd6d00545f75</t>
         </is>
       </c>
       <c r="V115" t="n">
@@ -18528,7 +18528,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ee7</t>
+          <t>66f70378a04dfd6d00545f75</t>
         </is>
       </c>
       <c r="V116" t="n">
@@ -18688,7 +18688,7 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ec1</t>
+          <t>66f70378a04dfd6d00545f4f</t>
         </is>
       </c>
       <c r="V117" t="n">
@@ -18848,7 +18848,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f09</t>
+          <t>66f70379a04dfd6d00545f97</t>
         </is>
       </c>
       <c r="V118" t="n">
@@ -19008,7 +19008,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f50</t>
+          <t>66f70379a04dfd6d00545fde</t>
         </is>
       </c>
       <c r="V119" t="n">
@@ -19168,7 +19168,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f4e</t>
+          <t>66f70379a04dfd6d00545fdc</t>
         </is>
       </c>
       <c r="V120" t="n">
@@ -19328,7 +19328,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f52</t>
+          <t>66f70379a04dfd6d00545fe0</t>
         </is>
       </c>
       <c r="V121" t="n">
@@ -19486,7 +19486,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f6b</t>
+          <t>66f70379a04dfd6d00545ff9</t>
         </is>
       </c>
       <c r="V122" t="n">
@@ -19644,7 +19644,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f69</t>
+          <t>66f70379a04dfd6d00545ff7</t>
         </is>
       </c>
       <c r="V123" t="n">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f1a</t>
+          <t>66f70379a04dfd6d00545fa8</t>
         </is>
       </c>
       <c r="V124" t="n">
@@ -19964,7 +19964,7 @@
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f16</t>
+          <t>66f70379a04dfd6d00545fa4</t>
         </is>
       </c>
       <c r="V125" t="n">
@@ -20124,7 +20124,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f18</t>
+          <t>66f70379a04dfd6d00545fa6</t>
         </is>
       </c>
       <c r="V126" t="n">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f1c</t>
+          <t>66f70379a04dfd6d00545faa</t>
         </is>
       </c>
       <c r="V127" t="n">
@@ -20444,7 +20444,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f3f</t>
+          <t>66f70379a04dfd6d00545fcd</t>
         </is>
       </c>
       <c r="V128" t="n">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f3d</t>
+          <t>66f70379a04dfd6d00545fcb</t>
         </is>
       </c>
       <c r="V129" t="n">
@@ -20762,7 +20762,7 @@
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f84</t>
+          <t>66f70379a04dfd6d00546012</t>
         </is>
       </c>
       <c r="V130" t="n">
@@ -20922,7 +20922,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fea</t>
+          <t>66f7037ca04dfd6d00546078</t>
         </is>
       </c>
       <c r="V131" t="n">
@@ -21082,7 +21082,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fec</t>
+          <t>66f7037ca04dfd6d0054607a</t>
         </is>
       </c>
       <c r="V132" t="n">
@@ -21240,7 +21240,7 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fe6</t>
+          <t>66f7037ca04dfd6d00546074</t>
         </is>
       </c>
       <c r="V133" t="n">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fe8</t>
+          <t>66f7037ca04dfd6d00546076</t>
         </is>
       </c>
       <c r="V134" t="n">
@@ -21560,7 +21560,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fd9</t>
+          <t>66f7037ca04dfd6d00546067</t>
         </is>
       </c>
       <c r="V135" t="n">
@@ -21720,7 +21720,7 @@
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32800f</t>
+          <t>66f7037ca04dfd6d0054609d</t>
         </is>
       </c>
       <c r="V136" t="n">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32800d</t>
+          <t>66f7037ca04dfd6d0054609b</t>
         </is>
       </c>
       <c r="V137" t="n">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328024</t>
+          <t>66f7037da04dfd6d005460b2</t>
         </is>
       </c>
       <c r="V138" t="n">
@@ -22200,7 +22200,7 @@
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328020</t>
+          <t>66f7037da04dfd6d005460ae</t>
         </is>
       </c>
       <c r="V139" t="n">
@@ -22458,7 +22458,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328037</t>
+          <t>66f7037da04dfd6d005460c5</t>
         </is>
       </c>
       <c r="V141" t="n">
@@ -22616,7 +22616,7 @@
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32804a</t>
+          <t>66f7037da04dfd6d005460d8</t>
         </is>
       </c>
       <c r="V142" t="n">
@@ -22874,7 +22874,7 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328078</t>
+          <t>66f7037da04dfd6d00546106</t>
         </is>
       </c>
       <c r="V144" t="n">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328053</t>
+          <t>66f7037da04dfd6d005460e1</t>
         </is>
       </c>
       <c r="V147" t="n">
@@ -23390,7 +23390,7 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328055</t>
+          <t>66f7037da04dfd6d005460e3</t>
         </is>
       </c>
       <c r="V148" t="n">
@@ -23648,7 +23648,7 @@
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328064</t>
+          <t>66f7037da04dfd6d005460f2</t>
         </is>
       </c>
       <c r="V150" t="n">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32806f</t>
+          <t>66f7037da04dfd6d005460fd</t>
         </is>
       </c>
       <c r="V151" t="n">
@@ -24360,7 +24360,7 @@
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328081</t>
+          <t>66f7037da04dfd6d0054610f</t>
         </is>
       </c>
       <c r="V156" t="n">
@@ -24520,7 +24520,7 @@
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328131</t>
+          <t>66f7037ea04dfd6d005461bf</t>
         </is>
       </c>
       <c r="V157" t="n">
@@ -24680,7 +24680,7 @@
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32808a</t>
+          <t>66f7037da04dfd6d00546118</t>
         </is>
       </c>
       <c r="V158" t="n">
@@ -25428,7 +25428,7 @@
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32813a</t>
+          <t>66f7037ea04dfd6d005461c8</t>
         </is>
       </c>
       <c r="V165" t="n">
@@ -25686,7 +25686,7 @@
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328093</t>
+          <t>66f7037da04dfd6d00546121</t>
         </is>
       </c>
       <c r="V167" t="n">
@@ -25846,7 +25846,7 @@
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328145</t>
+          <t>66f7037ea04dfd6d005461d3</t>
         </is>
       </c>
       <c r="V168" t="n">
@@ -26006,7 +26006,7 @@
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32809c</t>
+          <t>66f7037da04dfd6d0054612a</t>
         </is>
       </c>
       <c r="V169" t="n">
@@ -26362,7 +26362,7 @@
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328157</t>
+          <t>66f7037fa04dfd6d005461e5</t>
         </is>
       </c>
       <c r="V172" t="n">
@@ -26522,7 +26522,7 @@
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad3280a5</t>
+          <t>66f7037da04dfd6d00546133</t>
         </is>
       </c>
       <c r="V173" t="n">
@@ -26682,7 +26682,7 @@
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32814e</t>
+          <t>66f7037ea04dfd6d005461dc</t>
         </is>
       </c>
       <c r="V174" t="n">
@@ -26842,7 +26842,7 @@
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328160</t>
+          <t>66f7037fa04dfd6d005461ee</t>
         </is>
       </c>
       <c r="V175" t="n">
@@ -27002,7 +27002,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad3280ae</t>
+          <t>66f7037da04dfd6d0054613c</t>
         </is>
       </c>
       <c r="V176" t="n">
@@ -27162,7 +27162,7 @@
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad3280b0</t>
+          <t>66f7037da04dfd6d0054613e</t>
         </is>
       </c>
       <c r="V177" t="n">
@@ -27322,7 +27322,7 @@
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32816b</t>
+          <t>66f7037fa04dfd6d005461f9</t>
         </is>
       </c>
       <c r="V178" t="n">
@@ -27482,7 +27482,7 @@
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328174</t>
+          <t>66f7037fa04dfd6d00546202</t>
         </is>
       </c>
       <c r="V179" t="n">
@@ -27640,7 +27640,7 @@
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280bf</t>
+          <t>66f7037da04dfd6d0054614d</t>
         </is>
       </c>
       <c r="V180" t="n">
@@ -27800,7 +27800,7 @@
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280c1</t>
+          <t>66f7037da04dfd6d0054614f</t>
         </is>
       </c>
       <c r="V181" t="n">
@@ -27960,7 +27960,7 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280d0</t>
+          <t>66f7037da04dfd6d0054615e</t>
         </is>
       </c>
       <c r="V182" t="n">
@@ -28120,7 +28120,7 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32817d</t>
+          <t>66f7037fa04dfd6d0054620b</t>
         </is>
       </c>
       <c r="V183" t="n">
@@ -28280,7 +28280,7 @@
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280d9</t>
+          <t>66f7037ea04dfd6d00546167</t>
         </is>
       </c>
       <c r="V184" t="n">
@@ -28440,7 +28440,7 @@
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280e4</t>
+          <t>66f7037ea04dfd6d00546172</t>
         </is>
       </c>
       <c r="V185" t="n">
@@ -28600,7 +28600,7 @@
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280ef</t>
+          <t>66f7037ea04dfd6d0054617d</t>
         </is>
       </c>
       <c r="V186" t="n">
@@ -28760,7 +28760,7 @@
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328109</t>
+          <t>66f7037ea04dfd6d00546197</t>
         </is>
       </c>
       <c r="V187" t="n">
@@ -28920,7 +28920,7 @@
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32810b</t>
+          <t>66f7037ea04dfd6d00546199</t>
         </is>
       </c>
       <c r="V188" t="n">
@@ -29080,7 +29080,7 @@
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32810d</t>
+          <t>66f7037ea04dfd6d0054619b</t>
         </is>
       </c>
       <c r="V189" t="n">
@@ -29240,7 +29240,7 @@
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328122</t>
+          <t>66f7037ea04dfd6d005461b0</t>
         </is>
       </c>
       <c r="V190" t="n">
@@ -29400,7 +29400,7 @@
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328122</t>
+          <t>66f7037ea04dfd6d005461b0</t>
         </is>
       </c>
       <c r="V191" t="n">
@@ -29560,7 +29560,7 @@
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280fa</t>
+          <t>66f7037ea04dfd6d00546188</t>
         </is>
       </c>
       <c r="V192" t="n">
@@ -29720,7 +29720,7 @@
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280fa</t>
+          <t>66f7037ea04dfd6d00546188</t>
         </is>
       </c>
       <c r="V193" t="n">
